--- a/html-pdf_intel.xlsx
+++ b/html-pdf_intel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Code/GitHub/BMPTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF9CEE-0031-B44C-B066-53BE6083F512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C3BF4-9150-6940-A0B0-929986B24367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="903">
   <si>
     <t>File</t>
   </si>
@@ -2735,6 +2735,21 @@
   </si>
   <si>
     <t>Original URL</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -3283,21 +3298,21 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3353,7 +3368,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tim McGrath" refreshedDate="43951.542264467593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="562" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B1048576" sheet="html-pdf_intel"/>
+    <worksheetSource ref="B1:C1048576" sheet="html-pdf_intel"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="File" numFmtId="0">
@@ -5961,7 +5976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6262,7 +6277,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B271" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -7371,14 +7386,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E010D07E-A11E-2944-BCC9-31DED8F3AC8C}" name="HTMLPDFLinks" displayName="HTMLPDFLinks" ref="A1:C562" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C562" xr:uid="{31399862-4D5B-EF4B-BECC-D16A640F485A}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E010D07E-A11E-2944-BCC9-31DED8F3AC8C}" name="HTMLPDFLinks" displayName="HTMLPDFLinks" ref="B1:F562" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B1:F562" xr:uid="{31399862-4D5B-EF4B-BECC-D16A640F485A}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA4CC84C-3D52-354B-A07C-653F9D03B3FA}" name="HTML File"/>
     <tableColumn id="2" xr3:uid="{7E758532-3A99-3642-BDB1-B1470CFC453D}" name="Original URL"/>
     <tableColumn id="3" xr3:uid="{6AFDAF56-754F-F743-8353-7F30057D1502}" name="PDF File">
-      <calculatedColumnFormula>RIGHT(B2,(LEN(B2)-11))</calculatedColumnFormula>
+      <calculatedColumnFormula>RIGHT(C2,(LEN(C2)-11))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{8AB9E311-21D1-9947-80E7-A5B37330C075}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{C48D764A-4D7C-2C43-8C8C-D3B0B084F1C1}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7691,6758 +7708,6782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C562"/>
+  <dimension ref="A1:F562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="str">
-        <f>RIGHT(B2,(LEN(B2)-11))</f>
+      <c r="D2" t="str">
+        <f>RIGHT(C2,(LEN(C2)-11))</f>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">RIGHT(B3,(LEN(B3)-11))</f>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">RIGHT(C3,(LEN(C3)-11))</f>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>01200_to_01208_MissouriForest.pdf</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>01573_to_01581_NorthDakotaForestry.pdf</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>01990_rxfireguide.pdf</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>01960_appdx_g_northfork_pile_burning.pdf</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>01985_PrescribedBurning08.pdf</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>01571_wildfire.pdf</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>01582_to_01597_BMP_ASSESSMENT_FINAL_REPORT.pdf</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>01200_to_01208_MissouriForest.pdf</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>01347_to_01350_OklahomaForestry.pdf</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>01425_TimberHarvest.pdf</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>01209_to_01214_MontanaForestry.pdf</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>01573_to_01581_NorthDakotaForestry.pdf</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>01347_to_01350_OklahomaForestry.pdf</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>01347_to_01350_OklahomaForestry.pdf</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>01988_RedcedarOklahoma.pdf</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>01962_brush_management.pdf</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>01977_IowaBrushManagement.pdf</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>01598_BrushManagementNRCS.pdf</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>01980_OklahomaRedCedar.pdf</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>01976_hopkins_and_mcgillicuddy.pdf</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>01993_TTUMesquite.pdf</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>00421_to_00428_Land_Mgt_Tips_Small_Ranches_Texas_comp.pdf</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>01961_ArkansasVSMG.pdf</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="C36" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>01967_Fireguidlines.pdf</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>01200_to_01208_MissouriForest.pdf</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>01970_FlagstaffAZFire.pdf</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>72</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>01990_rxfireguide.pdf</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>96</v>
       </c>
-      <c r="C41" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>01968_FireManagement.pdf</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>97</v>
       </c>
-      <c r="C42" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>01981_OklahomaRxBurning.pdf</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>01975_HMFSPrescribedBurn.pdf</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>01986_LAburn.pdf</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>100</v>
       </c>
-      <c r="C45" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>01989_RxBurningSouthDakota.pdf</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>01978_KansasStateFireNotebook.pdf</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>01992_TOWMABurnPlan.pdf</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="C48" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>01966_FireFlorida.pdf</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="C49" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>01985_PrescribedBurning08.pdf</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>02001_WisconsinPrescribedBurning.pdf</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>105</v>
       </c>
-      <c r="C51" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>01991_RxFireinMichigan_BMPs_2010.pdf</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="C52" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>01983_PARC_Prescribed_Burning_Guidelines_Final_Edition_10-11-09.pdf</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" t="str">
+      <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>01960_appdx_g_northfork_pile_burning.pdf</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="str">
+      <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>01987_RangeBurningTexas.pdf</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="str">
+      <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>01994_VFD_Iowa_rx_fire_materials.pdf</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="C56" t="str">
+      <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>75</v>
       </c>
-      <c r="C57" t="str">
+      <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>01571_wildfire.pdf</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>110</v>
       </c>
-      <c r="C58" t="str">
+      <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>01963_corridordesign.org_BMPs_for_Corridors.pdf</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>76</v>
       </c>
-      <c r="C59" t="str">
+      <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="str">
+      <c r="D60" t="str">
         <f t="shared" si="0"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" t="str">
+      <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>01964_DeptEnvQualIdahoCorridors.pdf</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>112</v>
       </c>
-      <c r="C62" t="str">
+      <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>01982_OregonCorridors.pdf</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>113</v>
       </c>
-      <c r="C63" t="str">
+      <c r="D63" t="str">
         <f t="shared" si="0"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>114</v>
       </c>
-      <c r="C64" t="str">
+      <c r="D64" t="str">
         <f t="shared" si="0"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>115</v>
       </c>
-      <c r="C65" t="str">
+      <c r="D65" t="str">
         <f t="shared" si="0"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="str">
+      <c r="D66" t="str">
         <f t="shared" si="0"/>
         <v>00965_to00986_Impacts.pdf</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>113</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="1">RIGHT(B67,(LEN(B67)-11))</f>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">RIGHT(C67,(LEN(C67)-11))</f>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>116</v>
       </c>
-      <c r="C68" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="1"/>
         <v>00965_to00986_Impacts.pdf</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>113</v>
       </c>
-      <c r="C69" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>113</v>
       </c>
-      <c r="C70" t="str">
+      <c r="D70" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>113</v>
       </c>
-      <c r="C71" t="str">
+      <c r="D71" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="C72" t="str">
+      <c r="D72" t="str">
         <f t="shared" si="1"/>
         <v>01346_OhioWood.pdf</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>115</v>
       </c>
-      <c r="C73" t="str">
+      <c r="D73" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>115</v>
       </c>
-      <c r="C74" t="str">
+      <c r="D74" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>118</v>
       </c>
-      <c r="C75" t="str">
+      <c r="D75" t="str">
         <f t="shared" si="1"/>
         <v>00477_streambankhabitatenhancement.pdf</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>119</v>
       </c>
-      <c r="C76" t="str">
+      <c r="D76" t="str">
         <f t="shared" si="1"/>
         <v>00987_WoodyDebris.pdf</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>117</v>
       </c>
-      <c r="C77" t="str">
+      <c r="D77" t="str">
         <f t="shared" si="1"/>
         <v>01346_OhioWood.pdf</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>118</v>
       </c>
-      <c r="C78" t="str">
+      <c r="D78" t="str">
         <f t="shared" si="1"/>
         <v>00477_streambankhabitatenhancement.pdf</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>13</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>113</v>
       </c>
-      <c r="C79" t="str">
+      <c r="D79" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>13</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>113</v>
       </c>
-      <c r="C80" t="str">
+      <c r="D80" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>120</v>
       </c>
-      <c r="C81" t="str">
+      <c r="D81" t="str">
         <f t="shared" si="1"/>
         <v>00094_floatinglog.pdf</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>120</v>
       </c>
-      <c r="C82" t="str">
+      <c r="D82" t="str">
         <f t="shared" si="1"/>
         <v>00094_floatinglog.pdf</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>121</v>
       </c>
-      <c r="C83" t="str">
+      <c r="D83" t="str">
         <f t="shared" si="1"/>
         <v>00095_halflog.pdf</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>120</v>
       </c>
-      <c r="C84" t="str">
+      <c r="D84" t="str">
         <f t="shared" si="1"/>
         <v>00094_floatinglog.pdf</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>122</v>
       </c>
-      <c r="C85" t="str">
+      <c r="D85" t="str">
         <f t="shared" si="1"/>
         <v>00089_boulderclusters.pdf</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>15</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>113</v>
       </c>
-      <c r="C86" t="str">
+      <c r="D86" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>123</v>
       </c>
-      <c r="C87" t="str">
+      <c r="D87" t="str">
         <f t="shared" si="1"/>
         <v>00479_boulderclusters.pdf</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>15</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>115</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D88" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>15</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>115</v>
       </c>
-      <c r="C89" t="str">
+      <c r="D89" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>122</v>
       </c>
-      <c r="C90" t="str">
+      <c r="D90" t="str">
         <f t="shared" si="1"/>
         <v>00089_boulderclusters.pdf</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="str">
+      <c r="D91" t="str">
         <f t="shared" si="1"/>
         <v>00479_boulderclusters.pdf</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>16</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>124</v>
       </c>
-      <c r="C92" t="str">
+      <c r="D92" t="str">
         <f t="shared" si="1"/>
         <v>00121_lunkerstruct.pdf</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>113</v>
       </c>
-      <c r="C93" t="str">
+      <c r="D93" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>16</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>124</v>
       </c>
-      <c r="C94" t="str">
+      <c r="D94" t="str">
         <f t="shared" si="1"/>
         <v>00121_lunkerstruct.pdf</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>113</v>
       </c>
-      <c r="C95" t="str">
+      <c r="D95" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>113</v>
       </c>
-      <c r="C96" t="str">
+      <c r="D96" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>17</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>113</v>
       </c>
-      <c r="C97" t="str">
+      <c r="D97" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>18</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>85</v>
       </c>
-      <c r="C98" t="str">
+      <c r="D98" t="str">
         <f t="shared" si="1"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>18</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>125</v>
       </c>
-      <c r="C99" t="str">
+      <c r="D99" t="str">
         <f t="shared" si="1"/>
         <v>01332_OhioDeflectors.pdf</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>18</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>126</v>
       </c>
-      <c r="C100" t="str">
+      <c r="D100" t="str">
         <f t="shared" si="1"/>
         <v>00113_doublewing.pdf</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>115</v>
       </c>
-      <c r="C101" t="str">
+      <c r="D101" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>18</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>127</v>
       </c>
-      <c r="C102" t="str">
+      <c r="D102" t="str">
         <f t="shared" si="1"/>
         <v>00128_singlewing.pdf</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>18</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>113</v>
       </c>
-      <c r="C103" t="str">
+      <c r="D103" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>18</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>125</v>
       </c>
-      <c r="C104" t="str">
+      <c r="D104" t="str">
         <f t="shared" si="1"/>
         <v>01332_OhioDeflectors.pdf</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>18</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>126</v>
       </c>
-      <c r="C105" t="str">
+      <c r="D105" t="str">
         <f t="shared" si="1"/>
         <v>00113_doublewing.pdf</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>18</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>127</v>
       </c>
-      <c r="C106" t="str">
+      <c r="D106" t="str">
         <f t="shared" si="1"/>
         <v>00128_singlewing.pdf</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>19</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>128</v>
       </c>
-      <c r="C107" t="str">
+      <c r="D107" t="str">
         <f t="shared" si="1"/>
         <v>00548_to_00557_Maintaining_stormwatersystems.pdf</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>129</v>
       </c>
-      <c r="C108" t="str">
+      <c r="D108" t="str">
         <f t="shared" si="1"/>
         <v>01582_to_01600_TexasForest.pdf</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>20</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>113</v>
       </c>
-      <c r="C109" t="str">
+      <c r="D109" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>20</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>113</v>
       </c>
-      <c r="C110" t="str">
+      <c r="D110" t="str">
         <f t="shared" si="1"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>20</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>130</v>
       </c>
-      <c r="C111" t="str">
+      <c r="D111" t="str">
         <f t="shared" si="1"/>
         <v>00420_culverts.pdf</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>20</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>131</v>
       </c>
-      <c r="C112" t="str">
+      <c r="D112" t="str">
         <f t="shared" si="1"/>
         <v>01862_WashingtonCulverts.pdf</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>20</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>132</v>
       </c>
-      <c r="C113" t="str">
+      <c r="D113" t="str">
         <f t="shared" si="1"/>
         <v>01157_to_001193_MidPen.pdf</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>20</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>133</v>
       </c>
-      <c r="C114" t="str">
+      <c r="D114" t="str">
         <f t="shared" si="1"/>
         <v>00929_to_00933_VirginiaForestryA1.pdf</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>20</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>134</v>
       </c>
-      <c r="C115" t="str">
+      <c r="D115" t="str">
         <f t="shared" si="1"/>
         <v>01555_to_1569_WestVirginaForestry.pdf</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>20</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>115</v>
       </c>
-      <c r="C116" t="str">
+      <c r="D116" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>20</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>134</v>
       </c>
-      <c r="C117" t="str">
+      <c r="D117" t="str">
         <f t="shared" si="1"/>
         <v>01555_to_1569_WestVirginaForestry.pdf</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>20</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>134</v>
       </c>
-      <c r="C118" t="str">
+      <c r="D118" t="str">
         <f t="shared" si="1"/>
         <v>01555_to_1569_WestVirginaForestry.pdf</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>20</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>69</v>
       </c>
-      <c r="C119" t="str">
+      <c r="D119" t="str">
         <f t="shared" si="1"/>
         <v>00433_to_00473_TXForestService.pdf</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>20</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>109</v>
       </c>
-      <c r="C120" t="str">
+      <c r="D120" t="str">
         <f t="shared" si="1"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>21</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>135</v>
       </c>
-      <c r="C121" t="str">
+      <c r="D121" t="str">
         <f t="shared" si="1"/>
         <v>01959_AlamedaCreekFishPassage.pdf</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>21</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>136</v>
       </c>
-      <c r="C122" t="str">
+      <c r="D122" t="str">
         <f t="shared" si="1"/>
         <v>00706_DOT.pdf</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>21</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>131</v>
       </c>
-      <c r="C123" t="str">
+      <c r="D123" t="str">
         <f t="shared" si="1"/>
         <v>01862_WashingtonCulverts.pdf</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>21</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>137</v>
       </c>
-      <c r="C124" t="str">
+      <c r="D124" t="str">
         <f t="shared" si="1"/>
         <v>00093_fishpassages.pdf</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>21</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>138</v>
       </c>
-      <c r="C125" t="str">
+      <c r="D125" t="str">
         <f t="shared" si="1"/>
         <v>00671_to_00704_RoadMaintenance.pdf</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>21</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>139</v>
       </c>
-      <c r="C126" t="str">
+      <c r="D126" t="str">
         <f t="shared" si="1"/>
         <v>00705_Fish_Passage_Policy_Final_2nd_Edition_w_cover2.pdf</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>21</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>140</v>
       </c>
-      <c r="C127" t="str">
+      <c r="D127" t="str">
         <f t="shared" si="1"/>
         <v>00670_Fishpass22.pdf</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>21</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>115</v>
       </c>
-      <c r="C128" t="str">
+      <c r="D128" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>21</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>115</v>
       </c>
-      <c r="C129" t="str">
+      <c r="D129" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>21</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>115</v>
       </c>
-      <c r="C130" t="str">
+      <c r="D130" t="str">
         <f t="shared" si="1"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
         <v>21</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>141</v>
       </c>
-      <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="2">RIGHT(B131,(LEN(B131)-11))</f>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">RIGHT(C131,(LEN(C131)-11))</f>
         <v>01925_to_01956_WashingtonStreamHabitat.pdf</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>21</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>142</v>
       </c>
-      <c r="C132" t="str">
+      <c r="D132" t="str">
         <f t="shared" si="2"/>
         <v>02000_Willamette_DFP_DRR.pdf</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>21</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>137</v>
       </c>
-      <c r="C133" t="str">
+      <c r="D133" t="str">
         <f t="shared" si="2"/>
         <v>00093_fishpassages.pdf</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>21</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>131</v>
       </c>
-      <c r="C134" t="str">
+      <c r="D134" t="str">
         <f t="shared" si="2"/>
         <v>01862_WashingtonCulverts.pdf</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>22</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>143</v>
       </c>
-      <c r="C135" t="str">
+      <c r="D135" t="str">
         <f t="shared" si="2"/>
         <v>00027_checkdam.pdf</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>22</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>85</v>
       </c>
-      <c r="C136" t="str">
+      <c r="D136" t="str">
         <f t="shared" si="2"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>22</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>144</v>
       </c>
-      <c r="C137" t="str">
+      <c r="D137" t="str">
         <f t="shared" si="2"/>
         <v>00867_to_00886construction.pdf</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>22</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>145</v>
       </c>
-      <c r="C138" t="str">
+      <c r="D138" t="str">
         <f t="shared" si="2"/>
         <v>01131_to_01148_IslandCountyConstruction.pdf</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>22</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>146</v>
       </c>
-      <c r="C139" t="str">
+      <c r="D139" t="str">
         <f t="shared" si="2"/>
         <v>01355_to_01386_PortandErosion.pdf</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>22</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>147</v>
       </c>
-      <c r="C140" t="str">
+      <c r="D140" t="str">
         <f t="shared" si="2"/>
         <v>01436_to_01489_Vancouver.pdf</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>22</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>148</v>
       </c>
-      <c r="C141" t="str">
+      <c r="D141" t="str">
         <f t="shared" si="2"/>
         <v>01402_to_1420_StCloudSediment.pdf</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>22</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>149</v>
       </c>
-      <c r="C142" t="str">
+      <c r="D142" t="str">
         <f t="shared" si="2"/>
         <v>00940_to_00942_VirginiaForestryA3.pdf</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>22</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>150</v>
       </c>
-      <c r="C143" t="str">
+      <c r="D143" t="str">
         <f t="shared" si="2"/>
         <v>01490_to_01539_WashingtonBMP.pdf</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
         <v>22</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>151</v>
       </c>
-      <c r="C144" t="str">
+      <c r="D144" t="str">
         <f t="shared" si="2"/>
         <v>01299_to_01310_NewHampshireErosion.pdf</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>22</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>152</v>
       </c>
-      <c r="C145" t="str">
+      <c r="D145" t="str">
         <f t="shared" si="2"/>
         <v>01311_to_01324_NewHampshireUtility.pdf</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
         <v>22</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>143</v>
       </c>
-      <c r="C146" t="str">
+      <c r="D146" t="str">
         <f t="shared" si="2"/>
         <v>00027_checkdam.pdf</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
         <v>22</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>145</v>
       </c>
-      <c r="C147" t="str">
+      <c r="D147" t="str">
         <f t="shared" si="2"/>
         <v>01131_to_01148_IslandCountyConstruction.pdf</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
         <v>23</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>145</v>
       </c>
-      <c r="C148" t="str">
+      <c r="D148" t="str">
         <f t="shared" si="2"/>
         <v>01131_to_01148_IslandCountyConstruction.pdf</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>23</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>145</v>
       </c>
-      <c r="C149" t="str">
+      <c r="D149" t="str">
         <f t="shared" si="2"/>
         <v>01131_to_01148_IslandCountyConstruction.pdf</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>24</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>86</v>
       </c>
-      <c r="C150" t="str">
+      <c r="D150" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>24</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>86</v>
       </c>
-      <c r="C151" t="str">
+      <c r="D151" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>24</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>153</v>
       </c>
-      <c r="C152" t="str">
+      <c r="D152" t="str">
         <f t="shared" si="2"/>
         <v>01058_to_01095_CADevelopmentHandbook.pdf</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
         <v>24</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>109</v>
       </c>
-      <c r="C153" t="str">
+      <c r="D153" t="str">
         <f t="shared" si="2"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>24</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>109</v>
       </c>
-      <c r="C154" t="str">
+      <c r="D154" t="str">
         <f t="shared" si="2"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>24</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>109</v>
       </c>
-      <c r="C155" t="str">
+      <c r="D155" t="str">
         <f t="shared" si="2"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
         <v>24</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>154</v>
       </c>
-      <c r="C156" t="str">
+      <c r="D156" t="str">
         <f t="shared" si="2"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
         <v>24</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>154</v>
       </c>
-      <c r="C157" t="str">
+      <c r="D157" t="str">
         <f t="shared" si="2"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
         <v>24</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>154</v>
       </c>
-      <c r="C158" t="str">
+      <c r="D158" t="str">
         <f t="shared" si="2"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
         <v>24</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>154</v>
       </c>
-      <c r="C159" t="str">
+      <c r="D159" t="str">
         <f t="shared" si="2"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
         <v>24</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>86</v>
       </c>
-      <c r="C160" t="str">
+      <c r="D160" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>24</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>67</v>
       </c>
-      <c r="C161" t="str">
+      <c r="D161" t="str">
         <f t="shared" si="2"/>
         <v>00329_TPWD_WCP.doc"&gt;</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
         <v>24</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>86</v>
       </c>
-      <c r="C162" t="str">
+      <c r="D162" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
         <v>24</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>86</v>
       </c>
-      <c r="C163" t="str">
+      <c r="D163" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
         <v>24</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>86</v>
       </c>
-      <c r="C164" t="str">
+      <c r="D164" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
         <v>24</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>86</v>
       </c>
-      <c r="C165" t="str">
+      <c r="D165" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
         <v>24</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>86</v>
       </c>
-      <c r="C166" t="str">
+      <c r="D166" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
         <v>24</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>86</v>
       </c>
-      <c r="C167" t="str">
+      <c r="D167" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
         <v>24</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>86</v>
       </c>
-      <c r="C168" t="str">
+      <c r="D168" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
         <v>24</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>86</v>
       </c>
-      <c r="C169" t="str">
+      <c r="D169" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
         <v>24</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>86</v>
       </c>
-      <c r="C170" t="str">
+      <c r="D170" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
         <v>24</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>86</v>
       </c>
-      <c r="C171" t="str">
+      <c r="D171" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
         <v>24</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>155</v>
       </c>
-      <c r="C172" t="str">
+      <c r="D172" t="str">
         <f t="shared" si="2"/>
         <v>01639_to_01641_ChesapeakePesticides.pdf</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
         <v>24</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>86</v>
       </c>
-      <c r="C173" t="str">
+      <c r="D173" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
         <v>24</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>86</v>
       </c>
-      <c r="C174" t="str">
+      <c r="D174" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
         <v>24</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>86</v>
       </c>
-      <c r="C175" t="str">
+      <c r="D175" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>24</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>86</v>
       </c>
-      <c r="C176" t="str">
+      <c r="D176" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
         <v>24</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>153</v>
       </c>
-      <c r="C177" t="str">
+      <c r="D177" t="str">
         <f t="shared" si="2"/>
         <v>01058_to_01095_CADevelopmentHandbook.pdf</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
         <v>24</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>86</v>
       </c>
-      <c r="C178" t="str">
+      <c r="D178" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
         <v>24</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>86</v>
       </c>
-      <c r="C179" t="str">
+      <c r="D179" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
         <v>24</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>109</v>
       </c>
-      <c r="C180" t="str">
+      <c r="D180" t="str">
         <f t="shared" si="2"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>24</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>86</v>
       </c>
-      <c r="C181" t="str">
+      <c r="D181" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
         <v>24</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>86</v>
       </c>
-      <c r="C182" t="str">
+      <c r="D182" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
         <v>25</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>77</v>
       </c>
-      <c r="C183" t="str">
+      <c r="D183" t="str">
         <f t="shared" si="2"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
         <v>25</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>77</v>
       </c>
-      <c r="C184" t="str">
+      <c r="D184" t="str">
         <f t="shared" si="2"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
         <v>25</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>156</v>
       </c>
-      <c r="C185" t="str">
+      <c r="D185" t="str">
         <f t="shared" si="2"/>
         <v>01765_NRCSCoverCrop.pdf</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
         <v>25</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>157</v>
       </c>
-      <c r="C186" t="str">
+      <c r="D186" t="str">
         <f t="shared" si="2"/>
         <v>01625_to_01637_AgPesticideMngmt.pdf</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
         <v>26</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>158</v>
       </c>
-      <c r="C187" t="str">
+      <c r="D187" t="str">
         <f t="shared" si="2"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
         <v>26</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>159</v>
       </c>
-      <c r="C188" t="str">
+      <c r="D188" t="str">
         <f t="shared" si="2"/>
         <v>01770_PestManagement.pdf</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
         <v>26</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>158</v>
       </c>
-      <c r="C189" t="str">
+      <c r="D189" t="str">
         <f t="shared" si="2"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
         <v>26</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>160</v>
       </c>
-      <c r="C190" t="str">
+      <c r="D190" t="str">
         <f t="shared" si="2"/>
         <v>01754_ipm.pdf</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
         <v>26</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>161</v>
       </c>
-      <c r="C191" t="str">
+      <c r="D191" t="str">
         <f t="shared" si="2"/>
         <v>01771_PestOregon.pdf</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
         <v>27</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>86</v>
       </c>
-      <c r="C192" t="str">
+      <c r="D192" t="str">
         <f t="shared" si="2"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
         <v>27</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>162</v>
       </c>
-      <c r="C193" t="str">
+      <c r="D193" t="str">
         <f t="shared" si="2"/>
         <v>01740_ContourFarmingKY.pdf</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
         <v>27</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>163</v>
       </c>
-      <c r="C194" t="str">
+      <c r="D194" t="str">
         <f t="shared" si="2"/>
         <v>01741_ContourFarmingNRCS.pdf</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
         <v>27</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>86</v>
       </c>
-      <c r="C195" t="str">
-        <f t="shared" ref="C195:C258" si="3">RIGHT(B195,(LEN(B195)-11))</f>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="3">RIGHT(C195,(LEN(C195)-11))</f>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
         <v>28</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>86</v>
       </c>
-      <c r="C196" t="str">
+      <c r="D196" t="str">
         <f t="shared" si="3"/>
         <v>00295_to_00314_water_conservation_bmp.pdf</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
         <v>28</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>77</v>
       </c>
-      <c r="C197" t="str">
+      <c r="D197" t="str">
         <f t="shared" si="3"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
         <v>28</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>157</v>
       </c>
-      <c r="C198" t="str">
+      <c r="D198" t="str">
         <f t="shared" si="3"/>
         <v>01625_to_01637_AgPesticideMngmt.pdf</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
         <v>28</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>87</v>
       </c>
-      <c r="C199" t="str">
+      <c r="D199" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
         <v>28</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>87</v>
       </c>
-      <c r="C200" t="str">
+      <c r="D200" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
         <v>28</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>87</v>
       </c>
-      <c r="C201" t="str">
+      <c r="D201" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
         <v>29</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>164</v>
       </c>
-      <c r="C202" t="str">
+      <c r="D202" t="str">
         <f t="shared" si="3"/>
         <v>01731_AlabamaAnimalMortality.pdf</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
         <v>29</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>165</v>
       </c>
-      <c r="C203" t="str">
+      <c r="D203" t="str">
         <f t="shared" si="3"/>
         <v>01735_AnimalMortality.pdf</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
         <v>29</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>166</v>
       </c>
-      <c r="C204" t="str">
+      <c r="D204" t="str">
         <f t="shared" si="3"/>
         <v>01734_AnimalComposting.pdf</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
         <v>30</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>167</v>
       </c>
-      <c r="C205" t="str">
+      <c r="D205" t="str">
         <f t="shared" si="3"/>
         <v>01760_MarylandCropRotation.pdf</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
         <v>30</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>168</v>
       </c>
-      <c r="C206" t="str">
+      <c r="D206" t="str">
         <f t="shared" si="3"/>
         <v>01769_PennStatecroprotat.pdf</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
         <v>30</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>169</v>
       </c>
-      <c r="C207" t="str">
+      <c r="D207" t="str">
         <f t="shared" si="3"/>
         <v>01743_croprotationsfinaljan09.pdf</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
         <v>30</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>170</v>
       </c>
-      <c r="C208" t="str">
+      <c r="D208" t="str">
         <f t="shared" si="3"/>
         <v>01742_CropRotation.pdf</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
         <v>31</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>171</v>
       </c>
-      <c r="C209" t="str">
+      <c r="D209" t="str">
         <f t="shared" si="3"/>
         <v>01736_ArizonaGrazing.pdf</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
         <v>31</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>172</v>
       </c>
-      <c r="C210" t="str">
+      <c r="D210" t="str">
         <f t="shared" si="3"/>
         <v>01335_to_01340_OhioExt_RiparianLivestock.pdf</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
         <v>31</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>173</v>
       </c>
-      <c r="C211" t="str">
+      <c r="D211" t="str">
         <f t="shared" si="3"/>
         <v>01775_StepsGrazing.pdf</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
         <v>31</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>92</v>
       </c>
-      <c r="C212" t="str">
+      <c r="D212" t="str">
         <f t="shared" si="3"/>
         <v>00421_to_00428_Land_Mgt_Tips_Small_Ranches_Texas_comp.pdf</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
         <v>31</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>174</v>
       </c>
-      <c r="C213" t="str">
+      <c r="D213" t="str">
         <f t="shared" si="3"/>
         <v>01732_AlabamaGrazing.pdf</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
         <v>31</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>175</v>
       </c>
-      <c r="C214" t="str">
+      <c r="D214" t="str">
         <f t="shared" si="3"/>
         <v>01737_beef-grazing-systems.pdf</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
         <v>31</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>176</v>
       </c>
-      <c r="C215" t="str">
+      <c r="D215" t="str">
         <f t="shared" si="3"/>
         <v>01753_IowaGrazing.pdf</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
         <v>31</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>177</v>
       </c>
-      <c r="C216" t="str">
+      <c r="D216" t="str">
         <f t="shared" si="3"/>
         <v>01761_MinnesotaGrazing.pdf</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
         <v>31</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>178</v>
       </c>
-      <c r="C217" t="str">
+      <c r="D217" t="str">
         <f t="shared" si="3"/>
         <v>01763_NMgrazing.pdf</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
         <v>31</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>179</v>
       </c>
-      <c r="C218" t="str">
+      <c r="D218" t="str">
         <f t="shared" si="3"/>
         <v>01751_Grazing_Ag_Arizonia_edu.pdf</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
         <v>31</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>180</v>
       </c>
-      <c r="C219" t="str">
+      <c r="D219" t="str">
         <f t="shared" si="3"/>
         <v>01758_managingsoilsforgrazing.pdf</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
         <v>31</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>181</v>
       </c>
-      <c r="C220" t="str">
+      <c r="D220" t="str">
         <f t="shared" si="3"/>
         <v>01762_MUGrazing.pdf</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
         <v>31</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>77</v>
       </c>
-      <c r="C221" t="str">
+      <c r="D221" t="str">
         <f t="shared" si="3"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
         <v>31</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>182</v>
       </c>
-      <c r="C222" t="str">
+      <c r="D222" t="str">
         <f t="shared" si="3"/>
         <v>01750_Grazing.pdf</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
         <v>31</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>109</v>
       </c>
-      <c r="C223" t="str">
+      <c r="D223" t="str">
         <f t="shared" si="3"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
         <v>31</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>87</v>
       </c>
-      <c r="C224" t="str">
+      <c r="D224" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
         <v>31</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>109</v>
       </c>
-      <c r="C225" t="str">
+      <c r="D225" t="str">
         <f t="shared" si="3"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
         <v>31</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>87</v>
       </c>
-      <c r="C226" t="str">
+      <c r="D226" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
         <v>31</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>183</v>
       </c>
-      <c r="C227" t="str">
+      <c r="D227" t="str">
         <f t="shared" si="3"/>
         <v>01772_rotgraze.pdf</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>32</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>184</v>
       </c>
-      <c r="C228" t="str">
+      <c r="D228" t="str">
         <f t="shared" si="3"/>
         <v>01756_KYalley.pdf</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>32</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>76</v>
       </c>
-      <c r="C229" t="str">
+      <c r="D229" t="str">
         <f t="shared" si="3"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
         <v>32</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>185</v>
       </c>
-      <c r="C230" t="str">
+      <c r="D230" t="str">
         <f t="shared" si="3"/>
         <v>01729_USDAAlley.pdf</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
         <v>32</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>186</v>
       </c>
-      <c r="C231" t="str">
+      <c r="D231" t="str">
         <f t="shared" si="3"/>
         <v>01738_CenterForAgroForestry.pdf</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
         <v>32</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>187</v>
       </c>
-      <c r="C232" t="str">
+      <c r="D232" t="str">
         <f t="shared" si="3"/>
         <v>01764_NRCSalleyjob.pdf</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>32</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>188</v>
       </c>
-      <c r="C233" t="str">
+      <c r="D233" t="str">
         <f t="shared" si="3"/>
         <v>01748_FloridaAlley.pdf</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
         <v>32</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>189</v>
       </c>
-      <c r="C234" t="str">
+      <c r="D234" t="str">
         <f t="shared" si="3"/>
         <v>01776_StripCropNRCS.pdf</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
         <v>32</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>190</v>
       </c>
-      <c r="C235" t="str">
+      <c r="D235" t="str">
         <f t="shared" si="3"/>
         <v>01777_StripCropping_extension_iastate_edu.pdf</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
         <v>32</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>191</v>
       </c>
-      <c r="C236" t="str">
+      <c r="D236" t="str">
         <f t="shared" si="3"/>
         <v>01783_VT_strip_cropping.pdf</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
         <v>33</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>192</v>
       </c>
-      <c r="C237" t="str">
+      <c r="D237" t="str">
         <f t="shared" si="3"/>
         <v>01730_AgComposting.pdf</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
         <v>33</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>193</v>
       </c>
-      <c r="C238" t="str">
+      <c r="D238" t="str">
         <f t="shared" si="3"/>
         <v>01745_FarmComposting.pdf</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
         <v>33</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>194</v>
       </c>
-      <c r="C239" t="str">
+      <c r="D239" t="str">
         <f t="shared" si="3"/>
         <v>01739_compostNercOrg.pdf</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
         <v>33</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>85</v>
       </c>
-      <c r="C240" t="str">
+      <c r="D240" t="str">
         <f t="shared" si="3"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
         <v>33</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>166</v>
       </c>
-      <c r="C241" t="str">
+      <c r="D241" t="str">
         <f t="shared" si="3"/>
         <v>01734_AnimalComposting.pdf</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
         <v>33</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>154</v>
       </c>
-      <c r="C242" t="str">
+      <c r="D242" t="str">
         <f t="shared" si="3"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
         <v>33</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>195</v>
       </c>
-      <c r="C243" t="str">
+      <c r="D243" t="str">
         <f t="shared" si="3"/>
         <v>01744_FarmCompost.pdf</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
         <v>33</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>196</v>
       </c>
-      <c r="C244" t="str">
+      <c r="D244" t="str">
         <f t="shared" si="3"/>
         <v>01767_on_farm_comp_methods.pdf</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>33</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>197</v>
       </c>
-      <c r="C245" t="str">
+      <c r="D245" t="str">
         <f t="shared" si="3"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
         <v>33</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>198</v>
       </c>
-      <c r="C246" t="str">
+      <c r="D246" t="str">
         <f t="shared" si="3"/>
         <v>01749_FoodWasteCompost.pdf</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
         <v>34</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>199</v>
       </c>
-      <c r="C247" t="str">
+      <c r="D247" t="str">
         <f t="shared" si="3"/>
         <v>01773_soilresults.pdf</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
         <v>34</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>200</v>
       </c>
-      <c r="C248" t="str">
+      <c r="D248" t="str">
         <f t="shared" si="3"/>
         <v>01780_testing.pdf</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
         <v>34</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>201</v>
       </c>
-      <c r="C249" t="str">
+      <c r="D249" t="str">
         <f t="shared" si="3"/>
         <v>01774_soiltest.pdf</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
         <v>34</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>202</v>
       </c>
-      <c r="C250" t="str">
+      <c r="D250" t="str">
         <f t="shared" si="3"/>
         <v>01781_TestsForWell.pdf</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
         <v>35</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>87</v>
       </c>
-      <c r="C251" t="str">
+      <c r="D251" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
         <v>35</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>87</v>
       </c>
-      <c r="C252" t="str">
+      <c r="D252" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
         <v>35</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>87</v>
       </c>
-      <c r="C253" t="str">
+      <c r="D253" t="str">
         <f t="shared" si="3"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
         <v>35</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>203</v>
       </c>
-      <c r="C254" t="str">
+      <c r="D254" t="str">
         <f t="shared" si="3"/>
         <v>00043_terracing.pdf</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
         <v>36</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>77</v>
       </c>
-      <c r="C255" t="str">
+      <c r="D255" t="str">
         <f t="shared" si="3"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
         <v>36</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>197</v>
       </c>
-      <c r="C256" t="str">
+      <c r="D256" t="str">
         <f t="shared" si="3"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
         <v>36</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>204</v>
       </c>
-      <c r="C257" t="str">
+      <c r="D257" t="str">
         <f t="shared" si="3"/>
         <v>00009_animalwaste.pdf</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
         <v>36</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>158</v>
       </c>
-      <c r="C258" t="str">
+      <c r="D258" t="str">
         <f t="shared" si="3"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
         <v>36</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>77</v>
       </c>
-      <c r="C259" t="str">
-        <f t="shared" ref="C259:C322" si="4">RIGHT(B259,(LEN(B259)-11))</f>
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D322" si="4">RIGHT(C259,(LEN(C259)-11))</f>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
         <v>36</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>77</v>
       </c>
-      <c r="C260" t="str">
+      <c r="D260" t="str">
         <f t="shared" si="4"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
         <v>36</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>205</v>
       </c>
-      <c r="C261" t="str">
+      <c r="D261" t="str">
         <f t="shared" si="4"/>
         <v>01119_ to 01123_HorsePastures.pdf</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
         <v>36</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>206</v>
       </c>
-      <c r="C262" t="str">
+      <c r="D262" t="str">
         <f t="shared" si="4"/>
         <v>01759_manure_management_handbook.pdf</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
         <v>37</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>109</v>
       </c>
-      <c r="C263" t="str">
+      <c r="D263" t="str">
         <f t="shared" si="4"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
         <v>38</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>207</v>
       </c>
-      <c r="C264" t="str">
+      <c r="D264" t="str">
         <f t="shared" si="4"/>
         <v>00079_sed_basinwq.pdf</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
         <v>38</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>85</v>
       </c>
-      <c r="C265" t="str">
+      <c r="D265" t="str">
         <f t="shared" si="4"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
         <v>38</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>197</v>
       </c>
-      <c r="C266" t="str">
+      <c r="D266" t="str">
         <f t="shared" si="4"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
         <v>38</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>144</v>
       </c>
-      <c r="C267" t="str">
+      <c r="D267" t="str">
         <f t="shared" si="4"/>
         <v>00867_to_00886construction.pdf</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
         <v>38</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>109</v>
       </c>
-      <c r="C268" t="str">
+      <c r="D268" t="str">
         <f t="shared" si="4"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
         <v>39</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>208</v>
       </c>
-      <c r="C269" t="str">
+      <c r="D269" t="str">
         <f t="shared" si="4"/>
         <v>01723_CrossingRemovals.pdf</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
         <v>39</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>209</v>
       </c>
-      <c r="C270" t="str">
+      <c r="D270" t="str">
         <f t="shared" si="4"/>
         <v>01725_OklahomaForestryStreamCrossings.pdf</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
         <v>39</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>210</v>
       </c>
-      <c r="C271" t="str">
+      <c r="D271" t="str">
         <f t="shared" si="4"/>
         <v>01727_UMass_Edu_StreamCrossing.pdf</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
         <v>39</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>211</v>
       </c>
-      <c r="C272" t="str">
+      <c r="D272" t="str">
         <f t="shared" si="4"/>
         <v>01724_NRCSStreamCrossings.pdf</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
         <v>39</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>212</v>
       </c>
-      <c r="C273" t="str">
+      <c r="D273" t="str">
         <f t="shared" si="4"/>
         <v>01726_TexasForestryStreamCrossings.pdf</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
         <v>39</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>213</v>
       </c>
-      <c r="C274" t="str">
+      <c r="D274" t="str">
         <f t="shared" si="4"/>
         <v>01728_NYcrossings.pdf</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
         <v>39</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>210</v>
       </c>
-      <c r="C275" t="str">
+      <c r="D275" t="str">
         <f t="shared" si="4"/>
         <v>01727_UMass_Edu_StreamCrossing.pdf</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
         <v>39</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>213</v>
       </c>
-      <c r="C276" t="str">
+      <c r="D276" t="str">
         <f t="shared" si="4"/>
         <v>01728_NYcrossings.pdf</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
         <v>39</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>211</v>
       </c>
-      <c r="C277" t="str">
+      <c r="D277" t="str">
         <f t="shared" si="4"/>
         <v>01724_NRCSStreamCrossings.pdf</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
         <v>40</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>214</v>
       </c>
-      <c r="C278" t="str">
+      <c r="D278" t="str">
         <f t="shared" si="4"/>
         <v>00369_conservation_easement_handbook_2010.pdf</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
         <v>40</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>215</v>
       </c>
-      <c r="C279" t="str">
+      <c r="D279" t="str">
         <f t="shared" si="4"/>
         <v>00710_LandPreservation.pdf</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
         <v>40</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>216</v>
       </c>
-      <c r="C280" t="str">
+      <c r="D280" t="str">
         <f t="shared" si="4"/>
         <v>00711_TPWDconservationeasements.pdf</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
         <v>40</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>216</v>
       </c>
-      <c r="C281" t="str">
+      <c r="D281" t="str">
         <f t="shared" si="4"/>
         <v>00711_TPWDconservationeasements.pdf</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
         <v>40</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>214</v>
       </c>
-      <c r="C282" t="str">
+      <c r="D282" t="str">
         <f t="shared" si="4"/>
         <v>00369_conservation_easement_handbook_2010.pdf</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
         <v>40</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>215</v>
       </c>
-      <c r="C283" t="str">
+      <c r="D283" t="str">
         <f t="shared" si="4"/>
         <v>00710_LandPreservation.pdf</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
         <v>41</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>217</v>
       </c>
-      <c r="C284" t="str">
+      <c r="D284" t="str">
         <f t="shared" si="4"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
         <v>41</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>115</v>
       </c>
-      <c r="C285" t="str">
+      <c r="D285" t="str">
         <f t="shared" si="4"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
         <v>42</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>218</v>
       </c>
-      <c r="C286" t="str">
+      <c r="D286" t="str">
         <f t="shared" si="4"/>
         <v>00432_TPWDLIP.pdf</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
         <v>43</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>158</v>
       </c>
-      <c r="C287" t="str">
+      <c r="D287" t="str">
         <f t="shared" si="4"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
         <v>43</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>219</v>
       </c>
-      <c r="C288" t="str">
+      <c r="D288" t="str">
         <f t="shared" si="4"/>
         <v>01691_Conservation_Design_Resource_Manual.pdf</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
         <v>43</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>220</v>
       </c>
-      <c r="C289" t="str">
+      <c r="D289" t="str">
         <f t="shared" si="4"/>
         <v>01702_Travis_County_Conservation_Design_Manual.pdf</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
         <v>43</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>221</v>
       </c>
-      <c r="C290" t="str">
+      <c r="D290" t="str">
         <f t="shared" si="4"/>
         <v>01696_Dripping_Springs_Conservation_Design_Ordinance.pdf</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
         <v>43</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>222</v>
       </c>
-      <c r="C291" t="str">
+      <c r="D291" t="str">
         <f t="shared" si="4"/>
         <v>01692_Conservation_Dev_in_Practice.pdf</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
         <v>43</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>223</v>
       </c>
-      <c r="C292" t="str">
+      <c r="D292" t="str">
         <f t="shared" si="4"/>
         <v>01698_LBJWC_Conservation_Development_in_Texas.pdf</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
         <v>43</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>224</v>
       </c>
-      <c r="C293" t="str">
+      <c r="D293" t="str">
         <f t="shared" si="4"/>
         <v>01699_LBJWC_Conservation_Development_White_Paper.pdf</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
         <v>43</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>225</v>
       </c>
-      <c r="C294" t="str">
+      <c r="D294" t="str">
         <f t="shared" si="4"/>
         <v>01695_CSDOverview.pdf</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
         <v>43</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>226</v>
       </c>
-      <c r="C295" t="str">
+      <c r="D295" t="str">
         <f t="shared" si="4"/>
         <v>01700_LondonBoroughOfRichmondUponThames.pdf</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
         <v>43</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>227</v>
       </c>
-      <c r="C296" t="str">
+      <c r="D296" t="str">
         <f t="shared" si="4"/>
         <v>01694_CSDEnhancingValue.pdf</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
         <v>43</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>228</v>
       </c>
-      <c r="C297" t="str">
+      <c r="D297" t="str">
         <f t="shared" si="4"/>
         <v>01701_SubdivisionDesignCritique.pdf</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
         <v>43</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>158</v>
       </c>
-      <c r="C298" t="str">
+      <c r="D298" t="str">
         <f t="shared" si="4"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
         <v>43</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
         <v>158</v>
       </c>
-      <c r="C299" t="str">
+      <c r="D299" t="str">
         <f t="shared" si="4"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
         <v>43</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>229</v>
       </c>
-      <c r="C300" t="str">
+      <c r="D300" t="str">
         <f t="shared" si="4"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
         <v>43</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>158</v>
       </c>
-      <c r="C301" t="str">
+      <c r="D301" t="str">
         <f t="shared" si="4"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
         <v>43</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>230</v>
       </c>
-      <c r="C302" t="str">
+      <c r="D302" t="str">
         <f t="shared" si="4"/>
         <v>01693_CSDBenefits.pdf</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
         <v>43</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>158</v>
       </c>
-      <c r="C303" t="str">
+      <c r="D303" t="str">
         <f t="shared" si="4"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
         <v>43</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>231</v>
       </c>
-      <c r="C304" t="str">
+      <c r="D304" t="str">
         <f t="shared" si="4"/>
         <v>01697_EconomicsofCSD.pdf</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
         <v>43</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>158</v>
       </c>
-      <c r="C305" t="str">
+      <c r="D305" t="str">
         <f t="shared" si="4"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
         <v>43</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>229</v>
       </c>
-      <c r="C306" t="str">
+      <c r="D306" t="str">
         <f t="shared" si="4"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
         <v>43</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>229</v>
       </c>
-      <c r="C307" t="str">
+      <c r="D307" t="str">
         <f t="shared" si="4"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
         <v>43</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>222</v>
       </c>
-      <c r="C308" t="str">
+      <c r="D308" t="str">
         <f t="shared" si="4"/>
         <v>01692_Conservation_Dev_in_Practice.pdf</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
         <v>43</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>223</v>
       </c>
-      <c r="C309" t="str">
+      <c r="D309" t="str">
         <f t="shared" si="4"/>
         <v>01698_LBJWC_Conservation_Development_in_Texas.pdf</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
         <v>44</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>197</v>
       </c>
-      <c r="C310" t="str">
+      <c r="D310" t="str">
         <f t="shared" si="4"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
         <v>44</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>232</v>
       </c>
-      <c r="C311" t="str">
+      <c r="D311" t="str">
         <f t="shared" si="4"/>
         <v>01642_to_01648_ColoradoStatePesticide.pdf</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
         <v>44</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>233</v>
       </c>
-      <c r="C312" t="str">
+      <c r="D312" t="str">
         <f t="shared" si="4"/>
         <v>01650_FloridaAgrichemical.pdf</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
         <v>44</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>234</v>
       </c>
-      <c r="C313" t="str">
+      <c r="D313" t="str">
         <f t="shared" si="4"/>
         <v>01649_ColoradoStatePractices.pdf</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
         <v>44</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
         <v>232</v>
       </c>
-      <c r="C314" t="str">
+      <c r="D314" t="str">
         <f t="shared" si="4"/>
         <v>01642_to_01648_ColoradoStatePesticide.pdf</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
         <v>44</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>232</v>
       </c>
-      <c r="C315" t="str">
+      <c r="D315" t="str">
         <f t="shared" si="4"/>
         <v>01642_to_01648_ColoradoStatePesticide.pdf</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
         <v>44</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
         <v>70</v>
       </c>
-      <c r="C316" t="str">
+      <c r="D316" t="str">
         <f t="shared" si="4"/>
         <v>01200_to_01208_MissouriForest.pdf</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
         <v>44</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>109</v>
       </c>
-      <c r="C317" t="str">
+      <c r="D317" t="str">
         <f t="shared" si="4"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
         <v>44</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>235</v>
       </c>
-      <c r="C318" t="str">
+      <c r="D318" t="str">
         <f t="shared" si="4"/>
         <v>01638_BoulderColoradoChemical.pdf</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
         <v>44</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>236</v>
       </c>
-      <c r="C319" t="str">
+      <c r="D319" t="str">
         <f t="shared" si="4"/>
         <v>01682_IdahoPesticide.pdf</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
         <v>44</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>157</v>
       </c>
-      <c r="C320" t="str">
+      <c r="D320" t="str">
         <f t="shared" si="4"/>
         <v>01625_to_01637_AgPesticideMngmt.pdf</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
         <v>44</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>157</v>
       </c>
-      <c r="C321" t="str">
+      <c r="D321" t="str">
         <f t="shared" si="4"/>
         <v>01625_to_01637_AgPesticideMngmt.pdf</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
         <v>44</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>154</v>
       </c>
-      <c r="C322" t="str">
+      <c r="D322" t="str">
         <f t="shared" si="4"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
         <v>44</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>237</v>
       </c>
-      <c r="C323" t="str">
-        <f t="shared" ref="C323:C386" si="5">RIGHT(B323,(LEN(B323)-11))</f>
+      <c r="D323" t="str">
+        <f t="shared" ref="D323:D386" si="5">RIGHT(C323,(LEN(C323)-11))</f>
         <v>01689_UMassExtensionPesticides.pdf</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
         <v>44</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>232</v>
       </c>
-      <c r="C324" t="str">
+      <c r="D324" t="str">
         <f t="shared" si="5"/>
         <v>01642_to_01648_ColoradoStatePesticide.pdf</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
         <v>44</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>238</v>
       </c>
-      <c r="C325" t="str">
+      <c r="D325" t="str">
         <f t="shared" si="5"/>
         <v>01683_MarylandPestice.pdf</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
         <v>44</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>157</v>
       </c>
-      <c r="C326" t="str">
+      <c r="D326" t="str">
         <f t="shared" si="5"/>
         <v>01625_to_01637_AgPesticideMngmt.pdf</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
         <v>44</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>147</v>
       </c>
-      <c r="C327" t="str">
+      <c r="D327" t="str">
         <f t="shared" si="5"/>
         <v>01436_to_01489_Vancouver.pdf</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
         <v>44</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>155</v>
       </c>
-      <c r="C328" t="str">
+      <c r="D328" t="str">
         <f t="shared" si="5"/>
         <v>01639_to_01641_ChesapeakePesticides.pdf</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
         <v>44</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>154</v>
       </c>
-      <c r="C329" t="str">
+      <c r="D329" t="str">
         <f t="shared" si="5"/>
         <v>01651_to_01681_GreenIndustries.pdf</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
         <v>44</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>155</v>
       </c>
-      <c r="C330" t="str">
+      <c r="D330" t="str">
         <f t="shared" si="5"/>
         <v>01639_to_01641_ChesapeakePesticides.pdf</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
         <v>44</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>232</v>
       </c>
-      <c r="C331" t="str">
+      <c r="D331" t="str">
         <f t="shared" si="5"/>
         <v>01642_to_01648_ColoradoStatePesticide.pdf</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
         <v>44</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>232</v>
       </c>
-      <c r="C332" t="str">
+      <c r="D332" t="str">
         <f t="shared" si="5"/>
         <v>01642_to_01648_ColoradoStatePesticide.pdf</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
         <v>44</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>239</v>
       </c>
-      <c r="C333" t="str">
+      <c r="D333" t="str">
         <f t="shared" si="5"/>
         <v>01687_ScotlandPesticide.pdf</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
         <v>44</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>240</v>
       </c>
-      <c r="C334" t="str">
+      <c r="D334" t="str">
         <f t="shared" si="5"/>
         <v>01688_ScotlandPollution.pdf</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
         <v>44</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
         <v>197</v>
       </c>
-      <c r="C335" t="str">
+      <c r="D335" t="str">
         <f t="shared" si="5"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
         <v>44</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
         <v>197</v>
       </c>
-      <c r="C336" t="str">
+      <c r="D336" t="str">
         <f t="shared" si="5"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
         <v>44</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>68</v>
       </c>
-      <c r="C337" t="str">
+      <c r="D337" t="str">
         <f t="shared" si="5"/>
         <v>01690_USFWS_IPM.doc"&gt;</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
         <v>44</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>109</v>
       </c>
-      <c r="C338" t="str">
+      <c r="D338" t="str">
         <f t="shared" si="5"/>
         <v>01217_to_01298_NevadaHandbook.pdf</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
         <v>44</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>155</v>
       </c>
-      <c r="C339" t="str">
+      <c r="D339" t="str">
         <f t="shared" si="5"/>
         <v>01639_to_01641_ChesapeakePesticides.pdf</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
         <v>44</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
         <v>147</v>
       </c>
-      <c r="C340" t="str">
+      <c r="D340" t="str">
         <f t="shared" si="5"/>
         <v>01436_to_01489_Vancouver.pdf</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
         <v>45</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>85</v>
       </c>
-      <c r="C341" t="str">
+      <c r="D341" t="str">
         <f t="shared" si="5"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
         <v>45</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>217</v>
       </c>
-      <c r="C342" t="str">
+      <c r="D342" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
         <v>45</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>113</v>
       </c>
-      <c r="C343" t="str">
+      <c r="D343" t="str">
         <f t="shared" si="5"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
         <v>45</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>113</v>
       </c>
-      <c r="C344" t="str">
+      <c r="D344" t="str">
         <f t="shared" si="5"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
         <v>45</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>241</v>
       </c>
-      <c r="C345" t="str">
+      <c r="D345" t="str">
         <f t="shared" si="5"/>
         <v>00475_brushmattresses.pdf</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
         <v>45</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>242</v>
       </c>
-      <c r="C346" t="str">
+      <c r="D346" t="str">
         <f t="shared" si="5"/>
         <v>00110_brushmattress.pdf</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
         <v>45</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>243</v>
       </c>
-      <c r="C347" t="str">
+      <c r="D347" t="str">
         <f t="shared" si="5"/>
         <v>00822_Brush Mattress.pdf</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
         <v>45</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
         <v>217</v>
       </c>
-      <c r="C348" t="str">
+      <c r="D348" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
         <v>45</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>217</v>
       </c>
-      <c r="C349" t="str">
+      <c r="D349" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
         <v>46</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
         <v>244</v>
       </c>
-      <c r="C350" t="str">
+      <c r="D350" t="str">
         <f t="shared" si="5"/>
         <v>00429_TCEQTMDL.pdf</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
         <v>46</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>245</v>
       </c>
-      <c r="C351" t="str">
+      <c r="D351" t="str">
         <f t="shared" si="5"/>
         <v>00318_EPA_WPP.pdf</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
         <v>46</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
         <v>67</v>
       </c>
-      <c r="C352" t="str">
+      <c r="D352" t="str">
         <f t="shared" si="5"/>
         <v>00329_TPWD_WCP.doc"&gt;</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
         <v>47</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
         <v>246</v>
       </c>
-      <c r="C353" t="str">
+      <c r="D353" t="str">
         <f t="shared" si="5"/>
         <v>00118_liveslopegrating.pdf</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
         <v>47</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
         <v>246</v>
       </c>
-      <c r="C354" t="str">
+      <c r="D354" t="str">
         <f t="shared" si="5"/>
         <v>00118_liveslopegrating.pdf</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
         <v>48</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>247</v>
       </c>
-      <c r="C355" t="str">
+      <c r="D355" t="str">
         <f t="shared" si="5"/>
         <v>00030_erosionblanket.pdf</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
         <v>48</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>85</v>
       </c>
-      <c r="C356" t="str">
+      <c r="D356" t="str">
         <f t="shared" si="5"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
         <v>48</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>158</v>
       </c>
-      <c r="C357" t="str">
+      <c r="D357" t="str">
         <f t="shared" si="5"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
         <v>48</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>85</v>
       </c>
-      <c r="C358" t="str">
+      <c r="D358" t="str">
         <f t="shared" si="5"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
         <v>48</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>197</v>
       </c>
-      <c r="C359" t="str">
+      <c r="D359" t="str">
         <f t="shared" si="5"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
         <v>48</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
         <v>248</v>
       </c>
-      <c r="C360" t="str">
+      <c r="D360" t="str">
         <f t="shared" si="5"/>
         <v>00866_forTXDOT.pdf</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
         <v>48</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>149</v>
       </c>
-      <c r="C361" t="str">
+      <c r="D361" t="str">
         <f t="shared" si="5"/>
         <v>00940_to_00942_VirginiaForestryA3.pdf</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
         <v>48</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>249</v>
       </c>
-      <c r="C362" t="str">
+      <c r="D362" t="str">
         <f t="shared" si="5"/>
         <v>00037_mulching.pdf</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
         <v>48</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>149</v>
       </c>
-      <c r="C363" t="str">
+      <c r="D363" t="str">
         <f t="shared" si="5"/>
         <v>00940_to_00942_VirginiaForestryA3.pdf</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
         <v>48</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>249</v>
       </c>
-      <c r="C364" t="str">
+      <c r="D364" t="str">
         <f t="shared" si="5"/>
         <v>00037_mulching.pdf</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
         <v>48</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>247</v>
       </c>
-      <c r="C365" t="str">
+      <c r="D365" t="str">
         <f t="shared" si="5"/>
         <v>00030_erosionblanket.pdf</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
         <v>49</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>250</v>
       </c>
-      <c r="C366" t="str">
+      <c r="D366" t="str">
         <f t="shared" si="5"/>
         <v>00497_to_00506_Best_Practices_Workbook_FINAL_2010.pdf</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
         <v>49</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>251</v>
       </c>
-      <c r="C367" t="str">
+      <c r="D367" t="str">
         <f t="shared" si="5"/>
         <v>00017_edprograms.pdf</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
         <v>49</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
         <v>252</v>
       </c>
-      <c r="C368" t="str">
+      <c r="D368" t="str">
         <f t="shared" si="5"/>
         <v>00330_to_00366_WCITFBMPGuide.pdf</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
         <v>49</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>253</v>
       </c>
-      <c r="C369" t="str">
+      <c r="D369" t="str">
         <f t="shared" si="5"/>
         <v>00319_to_00328_Stewardship_Education.pdf</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
         <v>49</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
         <v>250</v>
       </c>
-      <c r="C370" t="str">
+      <c r="D370" t="str">
         <f t="shared" si="5"/>
         <v>00497_to_00506_Best_Practices_Workbook_FINAL_2010.pdf</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
         <v>50</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>144</v>
       </c>
-      <c r="C371" t="str">
+      <c r="D371" t="str">
         <f t="shared" si="5"/>
         <v>00867_to_00886construction.pdf</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
         <v>50</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>217</v>
       </c>
-      <c r="C372" t="str">
+      <c r="D372" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
         <v>50</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
         <v>115</v>
       </c>
-      <c r="C373" t="str">
+      <c r="D373" t="str">
         <f t="shared" si="5"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
         <v>50</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" t="s">
         <v>144</v>
       </c>
-      <c r="C374" t="str">
+      <c r="D374" t="str">
         <f t="shared" si="5"/>
         <v>00867_to_00886construction.pdf</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
         <v>50</v>
       </c>
-      <c r="B375" t="s">
+      <c r="C375" t="s">
         <v>217</v>
       </c>
-      <c r="C375" t="str">
+      <c r="D375" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
         <v>50</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
         <v>254</v>
       </c>
-      <c r="C376" t="str">
+      <c r="D376" t="str">
         <f t="shared" si="5"/>
         <v>00007_tempseeding.pdf</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
         <v>50</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>197</v>
       </c>
-      <c r="C377" t="str">
+      <c r="D377" t="str">
         <f t="shared" si="5"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
         <v>50</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>217</v>
       </c>
-      <c r="C378" t="str">
+      <c r="D378" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
         <v>50</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C379" t="s">
         <v>114</v>
       </c>
-      <c r="C379" t="str">
+      <c r="D379" t="str">
         <f t="shared" si="5"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
         <v>50</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C380" t="s">
         <v>217</v>
       </c>
-      <c r="C380" t="str">
+      <c r="D380" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
         <v>50</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
         <v>217</v>
       </c>
-      <c r="C381" t="str">
+      <c r="D381" t="str">
         <f t="shared" si="5"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
         <v>51</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>255</v>
       </c>
-      <c r="C382" t="str">
+      <c r="D382" t="str">
         <f t="shared" si="5"/>
         <v>01351_Ontario_AlternateWater.pdf</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
         <v>51</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
         <v>256</v>
       </c>
-      <c r="C383" t="str">
+      <c r="D383" t="str">
         <f t="shared" si="5"/>
         <v>01017_Arkansas_Ag.pdf</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
         <v>51</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>257</v>
       </c>
-      <c r="C384" t="str">
+      <c r="D384" t="str">
         <f t="shared" si="5"/>
         <v>01604_NorthCarolinaWatering.pdf</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
         <v>51</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>258</v>
       </c>
-      <c r="C385" t="str">
+      <c r="D385" t="str">
         <f t="shared" si="5"/>
         <v>01601_Livestockwatering.pdf</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
         <v>51</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>115</v>
       </c>
-      <c r="C386" t="str">
+      <c r="D386" t="str">
         <f t="shared" si="5"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
         <v>51</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C387" t="s">
         <v>77</v>
       </c>
-      <c r="C387" t="str">
-        <f t="shared" ref="C387:C450" si="6">RIGHT(B387,(LEN(B387)-11))</f>
+      <c r="D387" t="str">
+        <f t="shared" ref="D387:D450" si="6">RIGHT(C387,(LEN(C387)-11))</f>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
         <v>51</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C388" t="s">
         <v>77</v>
       </c>
-      <c r="C388" t="str">
+      <c r="D388" t="str">
         <f t="shared" si="6"/>
         <v>01018_to_01054_BMPHandbook_Chesapeake.pdf</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
         <v>51</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>259</v>
       </c>
-      <c r="C389" t="str">
+      <c r="D389" t="str">
         <f t="shared" si="6"/>
         <v>01603_BCwatering.pdf</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
         <v>51</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" t="s">
         <v>260</v>
       </c>
-      <c r="C390" t="str">
+      <c r="D390" t="str">
         <f t="shared" si="6"/>
         <v>01602_CanadaWatering.pdf</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
         <v>51</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
         <v>261</v>
       </c>
-      <c r="C391" t="str">
+      <c r="D391" t="str">
         <f t="shared" si="6"/>
         <v>01605_solarpoweredWatering.pdf</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
         <v>51</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
         <v>262</v>
       </c>
-      <c r="C392" t="str">
+      <c r="D392" t="str">
         <f t="shared" si="6"/>
         <v>01606_UTESolarStockWatering.pdf</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
         <v>51</v>
       </c>
-      <c r="B393" t="s">
+      <c r="C393" t="s">
         <v>255</v>
       </c>
-      <c r="C393" t="str">
+      <c r="D393" t="str">
         <f t="shared" si="6"/>
         <v>01351_Ontario_AlternateWater.pdf</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
         <v>52</v>
       </c>
-      <c r="B394" t="s">
+      <c r="C394" t="s">
         <v>263</v>
       </c>
-      <c r="C394" t="str">
+      <c r="D394" t="str">
         <f t="shared" si="6"/>
         <v>00108_branchpack.pdf</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B395" t="s">
         <v>52</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C395" t="s">
         <v>85</v>
       </c>
-      <c r="C395" t="str">
+      <c r="D395" t="str">
         <f t="shared" si="6"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B396" t="s">
         <v>52</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C396" t="s">
         <v>263</v>
       </c>
-      <c r="C396" t="str">
+      <c r="D396" t="str">
         <f t="shared" si="6"/>
         <v>00108_branchpack.pdf</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
         <v>53</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
         <v>217</v>
       </c>
-      <c r="C397" t="str">
+      <c r="D397" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B398" t="s">
         <v>54</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>264</v>
       </c>
-      <c r="C398" t="str">
+      <c r="D398" t="str">
         <f t="shared" si="6"/>
         <v>00116_livecribwall.pdf</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B399" t="s">
         <v>54</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C399" t="s">
         <v>85</v>
       </c>
-      <c r="C399" t="str">
+      <c r="D399" t="str">
         <f t="shared" si="6"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B400" t="s">
         <v>54</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C400" t="s">
         <v>113</v>
       </c>
-      <c r="C400" t="str">
+      <c r="D400" t="str">
         <f t="shared" si="6"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
         <v>54</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>265</v>
       </c>
-      <c r="C401" t="str">
+      <c r="D401" t="str">
         <f t="shared" si="6"/>
         <v>01331_OhioCribwall.pdf</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B402" t="s">
         <v>54</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>266</v>
       </c>
-      <c r="C402" t="str">
+      <c r="D402" t="str">
         <f t="shared" si="6"/>
         <v>01610_to_01613_WC_Streambank_Stabilization.pdf</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
         <v>54</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>229</v>
       </c>
-      <c r="C403" t="str">
+      <c r="D403" t="str">
         <f t="shared" si="6"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
         <v>54</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>217</v>
       </c>
-      <c r="C404" t="str">
+      <c r="D404" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
         <v>54</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
         <v>267</v>
       </c>
-      <c r="C405" t="str">
+      <c r="D405" t="str">
         <f t="shared" si="6"/>
         <v>01614_to01624_StreamStabilization.pdf</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
         <v>54</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C406" t="s">
         <v>268</v>
       </c>
-      <c r="C406" t="str">
+      <c r="D406" t="str">
         <f t="shared" si="6"/>
         <v>01703_to_01722_ShorelineStabilization.pdf</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
         <v>54</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
         <v>264</v>
       </c>
-      <c r="C407" t="str">
+      <c r="D407" t="str">
         <f t="shared" si="6"/>
         <v>00116_livecribwall.pdf</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
         <v>54</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
         <v>267</v>
       </c>
-      <c r="C408" t="str">
+      <c r="D408" t="str">
         <f t="shared" si="6"/>
         <v>01614_to01624_StreamStabilization.pdf</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
         <v>55</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>87</v>
       </c>
-      <c r="C409" t="str">
+      <c r="D409" t="str">
         <f t="shared" si="6"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
         <v>55</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>87</v>
       </c>
-      <c r="C410" t="str">
+      <c r="D410" t="str">
         <f t="shared" si="6"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
         <v>55</v>
       </c>
-      <c r="B411" t="s">
+      <c r="C411" t="s">
         <v>269</v>
       </c>
-      <c r="C411" t="str">
+      <c r="D411" t="str">
         <f t="shared" si="6"/>
         <v>00720_AustinGrasses.pdf</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
         <v>55</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>87</v>
       </c>
-      <c r="C412" t="str">
+      <c r="D412" t="str">
         <f t="shared" si="6"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
         <v>55</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
         <v>270</v>
       </c>
-      <c r="C413" t="str">
+      <c r="D413" t="str">
         <f t="shared" si="6"/>
         <v>00038_natrevege_grasses.pdf</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
         <v>55</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
         <v>271</v>
       </c>
-      <c r="C414" t="str">
+      <c r="D414" t="str">
         <f t="shared" si="6"/>
         <v>00039_natrevege_trees.pdf</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B415" t="s">
         <v>55</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
         <v>272</v>
       </c>
-      <c r="C415" t="str">
+      <c r="D415" t="str">
         <f t="shared" si="6"/>
         <v>00911_westernRiparianplant.pdf</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
         <v>55</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
         <v>273</v>
       </c>
-      <c r="C416" t="str">
+      <c r="D416" t="str">
         <f t="shared" si="6"/>
         <v>00924_StreamBufferOrdinance.pdf</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B417" t="s">
         <v>55</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
         <v>274</v>
       </c>
-      <c r="C417" t="str">
+      <c r="D417" t="str">
         <f t="shared" si="6"/>
         <v>00489_riparianrestorationrecommendations.pdf</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B418" t="s">
         <v>55</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>275</v>
       </c>
-      <c r="C418" t="str">
+      <c r="D418" t="str">
         <f t="shared" si="6"/>
         <v>00508_riparianrestorationrecommendations.pdf</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B419" t="s">
         <v>56</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
         <v>276</v>
       </c>
-      <c r="C419" t="str">
+      <c r="D419" t="str">
         <f t="shared" si="6"/>
         <v>00001_brushbarrier.pdf</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B420" t="s">
         <v>56</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
         <v>277</v>
       </c>
-      <c r="C420" t="str">
+      <c r="D420" t="str">
         <f t="shared" si="6"/>
         <v>00943_to_00946_VirginiaForestryA4.pdf</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B421" t="s">
         <v>56</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>144</v>
       </c>
-      <c r="C421" t="str">
+      <c r="D421" t="str">
         <f t="shared" si="6"/>
         <v>00867_to_00886construction.pdf</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B422" t="s">
         <v>56</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
         <v>85</v>
       </c>
-      <c r="C422" t="str">
+      <c r="D422" t="str">
         <f t="shared" si="6"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B423" t="s">
         <v>56</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>114</v>
       </c>
-      <c r="C423" t="str">
+      <c r="D423" t="str">
         <f t="shared" si="6"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B424" t="s">
         <v>56</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>144</v>
       </c>
-      <c r="C424" t="str">
+      <c r="D424" t="str">
         <f t="shared" si="6"/>
         <v>00867_to_00886construction.pdf</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B425" t="s">
         <v>56</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>277</v>
       </c>
-      <c r="C425" t="str">
+      <c r="D425" t="str">
         <f t="shared" si="6"/>
         <v>00943_to_00946_VirginiaForestryA4.pdf</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B426" t="s">
         <v>56</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>278</v>
       </c>
-      <c r="C426" t="str">
+      <c r="D426" t="str">
         <f t="shared" si="6"/>
         <v>00004_siltfence.pdf</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B427" t="s">
         <v>56</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>197</v>
       </c>
-      <c r="C427" t="str">
+      <c r="D427" t="str">
         <f t="shared" si="6"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B428" t="s">
         <v>56</v>
       </c>
-      <c r="B428" t="s">
+      <c r="C428" t="s">
         <v>76</v>
       </c>
-      <c r="C428" t="str">
+      <c r="D428" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B429" t="s">
         <v>56</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C429" t="s">
         <v>279</v>
       </c>
-      <c r="C429" t="str">
+      <c r="D429" t="str">
         <f t="shared" si="6"/>
         <v>00006_strawbale.pdf</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B430" t="s">
         <v>56</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>277</v>
       </c>
-      <c r="C430" t="str">
+      <c r="D430" t="str">
         <f t="shared" si="6"/>
         <v>00943_to_00946_VirginiaForestryA4.pdf</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B431" t="s">
         <v>56</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>276</v>
       </c>
-      <c r="C431" t="str">
+      <c r="D431" t="str">
         <f t="shared" si="6"/>
         <v>00001_brushbarrier.pdf</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B432" t="s">
         <v>56</v>
       </c>
-      <c r="B432" t="s">
+      <c r="C432" t="s">
         <v>279</v>
       </c>
-      <c r="C432" t="str">
+      <c r="D432" t="str">
         <f t="shared" si="6"/>
         <v>00006_strawbale.pdf</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B433" t="s">
         <v>57</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>280</v>
       </c>
-      <c r="C433" t="str">
+      <c r="D433" t="str">
         <f t="shared" si="6"/>
         <v>00111_coconutfiberroll.pdf</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
         <v>57</v>
       </c>
-      <c r="B434" t="s">
+      <c r="C434" t="s">
         <v>280</v>
       </c>
-      <c r="C434" t="str">
+      <c r="D434" t="str">
         <f t="shared" si="6"/>
         <v>00111_coconutfiberroll.pdf</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
         <v>57</v>
       </c>
-      <c r="B435" t="s">
+      <c r="C435" t="s">
         <v>113</v>
       </c>
-      <c r="C435" t="str">
+      <c r="D435" t="str">
         <f t="shared" si="6"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
         <v>57</v>
       </c>
-      <c r="B436" t="s">
+      <c r="C436" t="s">
         <v>217</v>
       </c>
-      <c r="C436" t="str">
+      <c r="D436" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B437" t="s">
         <v>57</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
         <v>280</v>
       </c>
-      <c r="C437" t="str">
+      <c r="D437" t="str">
         <f t="shared" si="6"/>
         <v>00111_coconutfiberroll.pdf</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B438" t="s">
         <v>57</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C438" t="s">
         <v>113</v>
       </c>
-      <c r="C438" t="str">
+      <c r="D438" t="str">
         <f t="shared" si="6"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B439" t="s">
         <v>57</v>
       </c>
-      <c r="B439" t="s">
+      <c r="C439" t="s">
         <v>217</v>
       </c>
-      <c r="C439" t="str">
+      <c r="D439" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B440" t="s">
         <v>58</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>217</v>
       </c>
-      <c r="C440" t="str">
+      <c r="D440" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B441" t="s">
         <v>58</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>76</v>
       </c>
-      <c r="C441" t="str">
+      <c r="D441" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B442" t="s">
         <v>58</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
         <v>217</v>
       </c>
-      <c r="C442" t="str">
+      <c r="D442" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B443" t="s">
         <v>58</v>
       </c>
-      <c r="B443" t="s">
+      <c r="C443" t="s">
         <v>76</v>
       </c>
-      <c r="C443" t="str">
+      <c r="D443" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B444" t="s">
         <v>58</v>
       </c>
-      <c r="B444" t="s">
+      <c r="C444" t="s">
         <v>76</v>
       </c>
-      <c r="C444" t="str">
+      <c r="D444" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
         <v>58</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
         <v>76</v>
       </c>
-      <c r="C445" t="str">
+      <c r="D445" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
         <v>58</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>76</v>
       </c>
-      <c r="C446" t="str">
+      <c r="D446" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B447" t="s">
         <v>58</v>
       </c>
-      <c r="B447" t="s">
+      <c r="C447" t="s">
         <v>76</v>
       </c>
-      <c r="C447" t="str">
+      <c r="D447" t="str">
         <f t="shared" si="6"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B448" t="s">
         <v>59</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>217</v>
       </c>
-      <c r="C448" t="str">
+      <c r="D448" t="str">
         <f t="shared" si="6"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B449" t="s">
         <v>59</v>
       </c>
-      <c r="B449" t="s">
+      <c r="C449" t="s">
         <v>280</v>
       </c>
-      <c r="C449" t="str">
+      <c r="D449" t="str">
         <f t="shared" si="6"/>
         <v>00111_coconutfiberroll.pdf</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
         <v>59</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>113</v>
       </c>
-      <c r="C450" t="str">
+      <c r="D450" t="str">
         <f t="shared" si="6"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B451" t="s">
         <v>59</v>
       </c>
-      <c r="B451" t="s">
+      <c r="C451" t="s">
         <v>217</v>
       </c>
-      <c r="C451" t="str">
-        <f t="shared" ref="C451:C514" si="7">RIGHT(B451,(LEN(B451)-11))</f>
+      <c r="D451" t="str">
+        <f t="shared" ref="D451:D514" si="7">RIGHT(C451,(LEN(C451)-11))</f>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B452" t="s">
         <v>59</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
         <v>114</v>
       </c>
-      <c r="C452" t="str">
+      <c r="D452" t="str">
         <f t="shared" si="7"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B453" t="s">
         <v>59</v>
       </c>
-      <c r="B453" t="s">
+      <c r="C453" t="s">
         <v>281</v>
       </c>
-      <c r="C453" t="str">
+      <c r="D453" t="str">
         <f t="shared" si="7"/>
         <v>00493_FascineStreambankErosionControl.pdf</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B454" t="s">
         <v>59</v>
       </c>
-      <c r="B454" t="s">
+      <c r="C454" t="s">
         <v>282</v>
       </c>
-      <c r="C454" t="str">
+      <c r="D454" t="str">
         <f t="shared" si="7"/>
         <v>00117_livefacine.pdf</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B455" t="s">
         <v>59</v>
       </c>
-      <c r="B455" t="s">
+      <c r="C455" t="s">
         <v>85</v>
       </c>
-      <c r="C455" t="str">
+      <c r="D455" t="str">
         <f t="shared" si="7"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B456" t="s">
         <v>59</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C456" t="s">
         <v>113</v>
       </c>
-      <c r="C456" t="str">
+      <c r="D456" t="str">
         <f t="shared" si="7"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B457" t="s">
         <v>59</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>229</v>
       </c>
-      <c r="C457" t="str">
+      <c r="D457" t="str">
         <f t="shared" si="7"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B458" t="s">
         <v>59</v>
       </c>
-      <c r="B458" t="s">
+      <c r="C458" t="s">
         <v>217</v>
       </c>
-      <c r="C458" t="str">
+      <c r="D458" t="str">
         <f t="shared" si="7"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B459" t="s">
         <v>59</v>
       </c>
-      <c r="B459" t="s">
+      <c r="C459" t="s">
         <v>282</v>
       </c>
-      <c r="C459" t="str">
+      <c r="D459" t="str">
         <f t="shared" si="7"/>
         <v>00117_livefacine.pdf</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B460" t="s">
         <v>59</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>217</v>
       </c>
-      <c r="C460" t="str">
+      <c r="D460" t="str">
         <f t="shared" si="7"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B461" t="s">
         <v>60</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>283</v>
       </c>
-      <c r="C461" t="str">
+      <c r="D461" t="str">
         <f t="shared" si="7"/>
         <v>00120_logrootwad.pdf</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B462" t="s">
         <v>60</v>
       </c>
-      <c r="B462" t="s">
+      <c r="C462" t="s">
         <v>217</v>
       </c>
-      <c r="C462" t="str">
+      <c r="D462" t="str">
         <f t="shared" si="7"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B463" t="s">
         <v>60</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>284</v>
       </c>
-      <c r="C463" t="str">
+      <c r="D463" t="str">
         <f t="shared" si="7"/>
         <v>00478_rootwadcomposites.pdf</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B464" t="s">
         <v>60</v>
       </c>
-      <c r="B464" t="s">
+      <c r="C464" t="s">
         <v>113</v>
       </c>
-      <c r="C464" t="str">
+      <c r="D464" t="str">
         <f t="shared" si="7"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B465" t="s">
         <v>60</v>
       </c>
-      <c r="B465" t="s">
+      <c r="C465" t="s">
         <v>114</v>
       </c>
-      <c r="C465" t="str">
+      <c r="D465" t="str">
         <f t="shared" si="7"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B466" t="s">
         <v>60</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>132</v>
       </c>
-      <c r="C466" t="str">
+      <c r="D466" t="str">
         <f t="shared" si="7"/>
         <v>01157_to_001193_MidPen.pdf</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B467" t="s">
         <v>60</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>116</v>
       </c>
-      <c r="C467" t="str">
+      <c r="D467" t="str">
         <f t="shared" si="7"/>
         <v>00965_to00986_Impacts.pdf</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B468" t="s">
         <v>60</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
         <v>284</v>
       </c>
-      <c r="C468" t="str">
+      <c r="D468" t="str">
         <f t="shared" si="7"/>
         <v>00478_rootwadcomposites.pdf</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B469" t="s">
         <v>60</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>283</v>
       </c>
-      <c r="C469" t="str">
+      <c r="D469" t="str">
         <f t="shared" si="7"/>
         <v>00120_logrootwad.pdf</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B470" t="s">
         <v>60</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
         <v>217</v>
       </c>
-      <c r="C470" t="str">
+      <c r="D470" t="str">
         <f t="shared" si="7"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B471" t="s">
         <v>61</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>76</v>
       </c>
-      <c r="C471" t="str">
+      <c r="D471" t="str">
         <f t="shared" si="7"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B472" t="s">
         <v>61</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
         <v>114</v>
       </c>
-      <c r="C472" t="str">
+      <c r="D472" t="str">
         <f t="shared" si="7"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B473" t="s">
         <v>61</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>285</v>
       </c>
-      <c r="C473" t="str">
+      <c r="D473" t="str">
         <f t="shared" si="7"/>
         <v>00912_grazing.pdf</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B474" t="s">
         <v>61</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>286</v>
       </c>
-      <c r="C474" t="str">
+      <c r="D474" t="str">
         <f t="shared" si="7"/>
         <v>00923_ripariangrazingguidelines.pdf</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B475" t="s">
         <v>61</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>287</v>
       </c>
-      <c r="C475" t="str">
+      <c r="D475" t="str">
         <f t="shared" si="7"/>
         <v>00718_Idaho.pdf</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B476" t="s">
         <v>61</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>288</v>
       </c>
-      <c r="C476" t="str">
+      <c r="D476" t="str">
         <f t="shared" si="7"/>
         <v>00913_managedgraze.pdf</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B477" t="s">
         <v>61</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
         <v>289</v>
       </c>
-      <c r="C477" t="str">
+      <c r="D477" t="str">
         <f t="shared" si="7"/>
         <v>00928_USDAGrazingIntermountainRegion.pdf</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B478" t="s">
         <v>61</v>
       </c>
-      <c r="B478" t="s">
+      <c r="C478" t="s">
         <v>197</v>
       </c>
-      <c r="C478" t="str">
+      <c r="D478" t="str">
         <f t="shared" si="7"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B479" t="s">
         <v>61</v>
       </c>
-      <c r="B479" t="s">
+      <c r="C479" t="s">
         <v>92</v>
       </c>
-      <c r="C479" t="str">
+      <c r="D479" t="str">
         <f t="shared" si="7"/>
         <v>00421_to_00428_Land_Mgt_Tips_Small_Ranches_Texas_comp.pdf</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B480" t="s">
         <v>61</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>287</v>
       </c>
-      <c r="C480" t="str">
+      <c r="D480" t="str">
         <f t="shared" si="7"/>
         <v>00718_Idaho.pdf</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B481" t="s">
         <v>62</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
         <v>290</v>
       </c>
-      <c r="C481" t="str">
+      <c r="D481" t="str">
         <f t="shared" si="7"/>
         <v>00558_to_00563_wetlandswatershed.pdf</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B482" t="s">
         <v>62</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>291</v>
       </c>
-      <c r="C482" t="str">
+      <c r="D482" t="str">
         <f t="shared" si="7"/>
         <v>01005_Correll2005.pdf</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B483" t="s">
         <v>62</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>292</v>
       </c>
-      <c r="C483" t="str">
+      <c r="D483" t="str">
         <f t="shared" si="7"/>
         <v>00715_UofGeorgia.pdf</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B484" t="s">
         <v>62</v>
       </c>
-      <c r="B484" t="s">
+      <c r="C484" t="s">
         <v>76</v>
       </c>
-      <c r="C484" t="str">
+      <c r="D484" t="str">
         <f t="shared" si="7"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B485" t="s">
         <v>62</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>293</v>
       </c>
-      <c r="C485" t="str">
+      <c r="D485" t="str">
         <f t="shared" si="7"/>
         <v>00992_LitBuffer.pdf</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B486" t="s">
         <v>62</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>76</v>
       </c>
-      <c r="C486" t="str">
+      <c r="D486" t="str">
         <f t="shared" si="7"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B487" t="s">
         <v>62</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
         <v>87</v>
       </c>
-      <c r="C487" t="str">
+      <c r="D487" t="str">
         <f t="shared" si="7"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B488" t="s">
         <v>62</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>229</v>
       </c>
-      <c r="C488" t="str">
+      <c r="D488" t="str">
         <f t="shared" si="7"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B489" t="s">
         <v>62</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>158</v>
       </c>
-      <c r="C489" t="str">
+      <c r="D489" t="str">
         <f t="shared" si="7"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B490" t="s">
         <v>62</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>294</v>
       </c>
-      <c r="C490" t="str">
+      <c r="D490" t="str">
         <f t="shared" si="7"/>
         <v>00481_designrecommendationsripariancorridors.pdf</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B491" t="s">
         <v>62</v>
       </c>
-      <c r="B491" t="s">
+      <c r="C491" t="s">
         <v>76</v>
       </c>
-      <c r="C491" t="str">
+      <c r="D491" t="str">
         <f t="shared" si="7"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B492" t="s">
         <v>62</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>158</v>
       </c>
-      <c r="C492" t="str">
+      <c r="D492" t="str">
         <f t="shared" si="7"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B493" t="s">
         <v>62</v>
       </c>
-      <c r="B493" t="s">
+      <c r="C493" t="s">
         <v>295</v>
       </c>
-      <c r="C493" t="str">
+      <c r="D493" t="str">
         <f t="shared" si="7"/>
         <v>00996_FishBuffer.pdf</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B494" t="s">
         <v>62</v>
       </c>
-      <c r="B494" t="s">
+      <c r="C494" t="s">
         <v>296</v>
       </c>
-      <c r="C494" t="str">
+      <c r="D494" t="str">
         <f t="shared" si="7"/>
         <v>00998_bufferguide.pdf</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B495" t="s">
         <v>62</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>76</v>
       </c>
-      <c r="C495" t="str">
+      <c r="D495" t="str">
         <f t="shared" si="7"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B496" t="s">
         <v>62</v>
       </c>
-      <c r="B496" t="s">
+      <c r="C496" t="s">
         <v>297</v>
       </c>
-      <c r="C496" t="str">
+      <c r="D496" t="str">
         <f t="shared" si="7"/>
         <v>00709_riparian.pdf</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B497" t="s">
         <v>62</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>298</v>
       </c>
-      <c r="C497" t="str">
+      <c r="D497" t="str">
         <f t="shared" si="7"/>
         <v>01012_StroudPreserve.pdf</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B498" t="s">
         <v>62</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
         <v>299</v>
       </c>
-      <c r="C498" t="str">
+      <c r="D498" t="str">
         <f t="shared" si="7"/>
         <v>01007_riparian5.pdf</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B499" t="s">
         <v>62</v>
       </c>
-      <c r="B499" t="s">
+      <c r="C499" t="s">
         <v>300</v>
       </c>
-      <c r="C499" t="str">
+      <c r="D499" t="str">
         <f t="shared" si="7"/>
         <v>00717_RiparianBuffer.pdf</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B500" t="s">
         <v>62</v>
       </c>
-      <c r="B500" t="s">
+      <c r="C500" t="s">
         <v>301</v>
       </c>
-      <c r="C500" t="str">
+      <c r="D500" t="str">
         <f t="shared" si="7"/>
         <v>00995_bufferguidlines.pdf</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B501" t="s">
         <v>62</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
         <v>302</v>
       </c>
-      <c r="C501" t="str">
+      <c r="D501" t="str">
         <f t="shared" si="7"/>
         <v>00126_riparianzone.pdf</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B502" t="s">
         <v>62</v>
       </c>
-      <c r="B502" t="s">
+      <c r="C502" t="s">
         <v>303</v>
       </c>
-      <c r="C502" t="str">
+      <c r="D502" t="str">
         <f t="shared" si="7"/>
         <v>00848_bufferpreserve.pdf</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B503" t="s">
         <v>62</v>
       </c>
-      <c r="B503" t="s">
+      <c r="C503" t="s">
         <v>304</v>
       </c>
-      <c r="C503" t="str">
+      <c r="D503" t="str">
         <f t="shared" si="7"/>
         <v>00918_PennRiparianBuffer.pdf</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B504" t="s">
         <v>62</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>305</v>
       </c>
-      <c r="C504" t="str">
+      <c r="D504" t="str">
         <f t="shared" si="7"/>
         <v>00994_EPAreview.pdf</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B505" t="s">
         <v>62</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>302</v>
       </c>
-      <c r="C505" t="str">
+      <c r="D505" t="str">
         <f t="shared" si="7"/>
         <v>00126_riparianzone.pdf</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B506" t="s">
         <v>62</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
         <v>306</v>
       </c>
-      <c r="C506" t="str">
+      <c r="D506" t="str">
         <f t="shared" si="7"/>
         <v>01011_bufferzones.pdf</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B507" t="s">
         <v>62</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
         <v>307</v>
       </c>
-      <c r="C507" t="str">
+      <c r="D507" t="str">
         <f t="shared" si="7"/>
         <v>01014_riparianwidths.pdf</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B508" t="s">
         <v>62</v>
       </c>
-      <c r="B508" t="s">
+      <c r="C508" t="s">
         <v>308</v>
       </c>
-      <c r="C508" t="str">
+      <c r="D508" t="str">
         <f t="shared" si="7"/>
         <v>01009_RiparianLP.pdf</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B509" t="s">
         <v>62</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>309</v>
       </c>
-      <c r="C509" t="str">
+      <c r="D509" t="str">
         <f t="shared" si="7"/>
         <v>01006_Riparian.pdf</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B510" t="s">
         <v>62</v>
       </c>
-      <c r="B510" t="s">
+      <c r="C510" t="s">
         <v>310</v>
       </c>
-      <c r="C510" t="str">
+      <c r="D510" t="str">
         <f t="shared" si="7"/>
         <v>00077_rip_for_buff.pdf</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B511" t="s">
         <v>62</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>311</v>
       </c>
-      <c r="C511" t="str">
+      <c r="D511" t="str">
         <f t="shared" si="7"/>
         <v>01001_Maryland.pdf</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B512" t="s">
         <v>62</v>
       </c>
-      <c r="B512" t="s">
+      <c r="C512" t="s">
         <v>312</v>
       </c>
-      <c r="C512" t="str">
+      <c r="D512" t="str">
         <f t="shared" si="7"/>
         <v>01008_riparian_design.pdf</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B513" t="s">
         <v>62</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
         <v>313</v>
       </c>
-      <c r="C513" t="str">
+      <c r="D513" t="str">
         <f t="shared" si="7"/>
         <v>01003_NRCSdesign.pdf</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B514" t="s">
         <v>62</v>
       </c>
-      <c r="B514" t="s">
+      <c r="C514" t="s">
         <v>314</v>
       </c>
-      <c r="C514" t="str">
+      <c r="D514" t="str">
         <f t="shared" si="7"/>
         <v>00496_Blinn_and_Kilgore_2001.pdf</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B515" t="s">
         <v>62</v>
       </c>
-      <c r="B515" t="s">
+      <c r="C515" t="s">
         <v>76</v>
       </c>
-      <c r="C515" t="str">
-        <f t="shared" ref="C515:C562" si="8">RIGHT(B515,(LEN(B515)-11))</f>
+      <c r="D515" t="str">
+        <f t="shared" ref="D515:D562" si="8">RIGHT(C515,(LEN(C515)-11))</f>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B516" t="s">
         <v>62</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>315</v>
       </c>
-      <c r="C516" t="str">
+      <c r="D516" t="str">
         <f t="shared" si="8"/>
         <v>00850_to_00862_riparianconservation.pdf</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B517" t="s">
         <v>62</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
         <v>316</v>
       </c>
-      <c r="C517" t="str">
+      <c r="D517" t="str">
         <f t="shared" si="8"/>
         <v>01013_SAI.pdf</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B518" t="s">
         <v>62</v>
       </c>
-      <c r="B518" t="s">
+      <c r="C518" t="s">
         <v>317</v>
       </c>
-      <c r="C518" t="str">
+      <c r="D518" t="str">
         <f t="shared" si="8"/>
         <v>01015_Zurba2007.pdf</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B519" t="s">
         <v>62</v>
       </c>
-      <c r="B519" t="s">
+      <c r="C519" t="s">
         <v>76</v>
       </c>
-      <c r="C519" t="str">
+      <c r="D519" t="str">
         <f t="shared" si="8"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B520" t="s">
         <v>62</v>
       </c>
-      <c r="B520" t="s">
+      <c r="C520" t="s">
         <v>158</v>
       </c>
-      <c r="C520" t="str">
+      <c r="D520" t="str">
         <f t="shared" si="8"/>
         <v>00509_to_00547_nonstuctural_urban_bmp.pdf</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B521" t="s">
         <v>62</v>
       </c>
-      <c r="B521" t="s">
+      <c r="C521" t="s">
         <v>197</v>
       </c>
-      <c r="C521" t="str">
+      <c r="D521" t="str">
         <f t="shared" si="8"/>
         <v>00381_to_00419_AgriLife_stormwater.pdf</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B522" t="s">
         <v>62</v>
       </c>
-      <c r="B522" t="s">
+      <c r="C522" t="s">
         <v>318</v>
       </c>
-      <c r="C522" t="str">
+      <c r="D522" t="str">
         <f t="shared" si="8"/>
         <v>00999_bufferzones.pdf</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B523" t="s">
         <v>62</v>
       </c>
-      <c r="B523" t="s">
+      <c r="C523" t="s">
         <v>76</v>
       </c>
-      <c r="C523" t="str">
+      <c r="D523" t="str">
         <f t="shared" si="8"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B524" t="s">
         <v>62</v>
       </c>
-      <c r="B524" t="s">
+      <c r="C524" t="s">
         <v>319</v>
       </c>
-      <c r="C524" t="str">
+      <c r="D524" t="str">
         <f t="shared" si="8"/>
         <v>00993_GolfBufferStrips.pdf</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B525" t="s">
         <v>62</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
         <v>295</v>
       </c>
-      <c r="C525" t="str">
+      <c r="D525" t="str">
         <f t="shared" si="8"/>
         <v>00996_FishBuffer.pdf</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" t="s">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B526" t="s">
         <v>62</v>
       </c>
-      <c r="B526" t="s">
+      <c r="C526" t="s">
         <v>76</v>
       </c>
-      <c r="C526" t="str">
+      <c r="D526" t="str">
         <f t="shared" si="8"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B527" t="s">
         <v>62</v>
       </c>
-      <c r="B527" t="s">
+      <c r="C527" t="s">
         <v>76</v>
       </c>
-      <c r="C527" t="str">
+      <c r="D527" t="str">
         <f t="shared" si="8"/>
         <v>00589_to_00666_conservation_buffers.pdf</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" t="s">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B528" t="s">
         <v>62</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>295</v>
       </c>
-      <c r="C528" t="str">
+      <c r="D528" t="str">
         <f t="shared" si="8"/>
         <v>00996_FishBuffer.pdf</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B529" t="s">
         <v>62</v>
       </c>
-      <c r="B529" t="s">
+      <c r="C529" t="s">
         <v>302</v>
       </c>
-      <c r="C529" t="str">
+      <c r="D529" t="str">
         <f t="shared" si="8"/>
         <v>00126_riparianzone.pdf</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B530" t="s">
         <v>62</v>
       </c>
-      <c r="B530" t="s">
+      <c r="C530" t="s">
         <v>294</v>
       </c>
-      <c r="C530" t="str">
+      <c r="D530" t="str">
         <f t="shared" si="8"/>
         <v>00481_designrecommendationsripariancorridors.pdf</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" t="s">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B531" t="s">
         <v>63</v>
       </c>
-      <c r="B531" t="s">
+      <c r="C531" t="s">
         <v>217</v>
       </c>
-      <c r="C531" t="str">
+      <c r="D531" t="str">
         <f t="shared" si="8"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" t="s">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B532" t="s">
         <v>63</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C532" t="s">
         <v>114</v>
       </c>
-      <c r="C532" t="str">
+      <c r="D532" t="str">
         <f t="shared" si="8"/>
         <v>00823_to_00847_StreambankStabilizationManagementMeasures.pdf</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" t="s">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B533" t="s">
         <v>63</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>320</v>
       </c>
-      <c r="C533" t="str">
+      <c r="D533" t="str">
         <f t="shared" si="8"/>
         <v>00109_brushlayer.pdf</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" t="s">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B534" t="s">
         <v>63</v>
       </c>
-      <c r="B534" t="s">
+      <c r="C534" t="s">
         <v>229</v>
       </c>
-      <c r="C534" t="str">
+      <c r="D534" t="str">
         <f t="shared" si="8"/>
         <v>00807_to_00821_Stream_guide.pdf</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" t="s">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B535" t="s">
         <v>63</v>
       </c>
-      <c r="B535" t="s">
+      <c r="C535" t="s">
         <v>217</v>
       </c>
-      <c r="C535" t="str">
+      <c r="D535" t="str">
         <f t="shared" si="8"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" t="s">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536" t="s">
         <v>63</v>
       </c>
-      <c r="B536" t="s">
+      <c r="C536" t="s">
         <v>320</v>
       </c>
-      <c r="C536" t="str">
+      <c r="D536" t="str">
         <f t="shared" si="8"/>
         <v>00109_brushlayer.pdf</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B537" t="s">
         <v>64</v>
       </c>
-      <c r="B537" t="s">
+      <c r="C537" t="s">
         <v>321</v>
       </c>
-      <c r="C537" t="str">
+      <c r="D537" t="str">
         <f t="shared" si="8"/>
         <v>01325_NRCS_shade.pdf</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538" t="s">
         <v>64</v>
       </c>
-      <c r="B538" t="s">
+      <c r="C538" t="s">
         <v>172</v>
       </c>
-      <c r="C538" t="str">
+      <c r="D538" t="str">
         <f t="shared" si="8"/>
         <v>01335_to_01340_OhioExt_RiparianLivestock.pdf</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" t="s">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B539" t="s">
         <v>64</v>
       </c>
-      <c r="B539" t="s">
+      <c r="C539" t="s">
         <v>322</v>
       </c>
-      <c r="C539" t="str">
+      <c r="D539" t="str">
         <f t="shared" si="8"/>
         <v>01389_ShadeOptions.pdf</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B540" t="s">
         <v>64</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>323</v>
       </c>
-      <c r="C540" t="str">
+      <c r="D540" t="str">
         <f t="shared" si="8"/>
         <v>01215_Mtg_unimelb_edu_au.pdf</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B541" t="s">
         <v>64</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>87</v>
       </c>
-      <c r="C541" t="str">
+      <c r="D541" t="str">
         <f t="shared" si="8"/>
         <v>00887_to_00910_KSUInformationSigns.pdf</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" t="s">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B542" t="s">
         <v>64</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>321</v>
       </c>
-      <c r="C542" t="str">
+      <c r="D542" t="str">
         <f t="shared" si="8"/>
         <v>01325_NRCS_shade.pdf</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B543" t="s">
         <v>65</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>217</v>
       </c>
-      <c r="C543" t="str">
+      <c r="D543" t="str">
         <f t="shared" si="8"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B544" t="s">
         <v>65</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>217</v>
       </c>
-      <c r="C544" t="str">
+      <c r="D544" t="str">
         <f t="shared" si="8"/>
         <v>00564_to 00588_Alaska.pdf</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B545" t="s">
         <v>66</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>113</v>
       </c>
-      <c r="C545" t="str">
+      <c r="D545" t="str">
         <f t="shared" si="8"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" t="s">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B546" t="s">
         <v>66</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>283</v>
       </c>
-      <c r="C546" t="str">
+      <c r="D546" t="str">
         <f t="shared" si="8"/>
         <v>00120_logrootwad.pdf</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" t="s">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B547" t="s">
         <v>66</v>
       </c>
-      <c r="B547" t="s">
+      <c r="C547" t="s">
         <v>324</v>
       </c>
-      <c r="C547" t="str">
+      <c r="D547" t="str">
         <f t="shared" si="8"/>
         <v>00757_to_00758_AnIntegratedFrameworktoRestoreSmallUrbanWatersheds.pdf</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B548" t="s">
         <v>66</v>
       </c>
-      <c r="B548" t="s">
+      <c r="C548" t="s">
         <v>115</v>
       </c>
-      <c r="C548" t="str">
+      <c r="D548" t="str">
         <f t="shared" si="8"/>
         <v>00760_to_00806_AustralianStreamRehabilitationManualvol2.pdf</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B549" t="s">
         <v>66</v>
       </c>
-      <c r="B549" t="s">
+      <c r="C549" t="s">
         <v>85</v>
       </c>
-      <c r="C549" t="str">
+      <c r="D549" t="str">
         <f t="shared" si="8"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B550" t="s">
         <v>66</v>
       </c>
-      <c r="B550" t="s">
+      <c r="C550" t="s">
         <v>325</v>
       </c>
-      <c r="C550" t="str">
+      <c r="D550" t="str">
         <f t="shared" si="8"/>
         <v>00132_treerevetment.pdf</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B551" t="s">
         <v>66</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>113</v>
       </c>
-      <c r="C551" t="str">
+      <c r="D551" t="str">
         <f t="shared" si="8"/>
         <v>00725_to_00756_Urban_Stream_Repair_Practices.pdf</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B552" t="s">
         <v>66</v>
       </c>
-      <c r="B552" t="s">
+      <c r="C552" t="s">
         <v>326</v>
       </c>
-      <c r="C552" t="str">
+      <c r="D552" t="str">
         <f t="shared" si="8"/>
         <v>00106_bagrevetment.pdf</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B553" t="s">
         <v>66</v>
       </c>
-      <c r="B553" t="s">
+      <c r="C553" t="s">
         <v>85</v>
       </c>
-      <c r="C553" t="str">
+      <c r="D553" t="str">
         <f t="shared" si="8"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B554" t="s">
         <v>66</v>
       </c>
-      <c r="B554" t="s">
+      <c r="C554" t="s">
         <v>327</v>
       </c>
-      <c r="C554" t="str">
+      <c r="D554" t="str">
         <f t="shared" si="8"/>
         <v>00028_concreteblkrevet.pdf</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B555" t="s">
         <v>66</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
         <v>328</v>
       </c>
-      <c r="C555" t="str">
+      <c r="D555" t="str">
         <f t="shared" si="8"/>
         <v>00031_gabionrevet.pdf</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" t="s">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B556" t="s">
         <v>66</v>
       </c>
-      <c r="B556" t="s">
+      <c r="C556" t="s">
         <v>85</v>
       </c>
-      <c r="C556" t="str">
+      <c r="D556" t="str">
         <f t="shared" si="8"/>
         <v>00140_to_00294_TCEQ BMPFinder.pdf</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" t="s">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B557" t="s">
         <v>66</v>
       </c>
-      <c r="B557" t="s">
+      <c r="C557" t="s">
         <v>329</v>
       </c>
-      <c r="C557" t="str">
+      <c r="D557" t="str">
         <f t="shared" si="8"/>
         <v>00123_pilingrevetment.pdf</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B558" t="s">
         <v>66</v>
       </c>
-      <c r="B558" t="s">
+      <c r="C558" t="s">
         <v>330</v>
       </c>
-      <c r="C558" t="str">
+      <c r="D558" t="str">
         <f t="shared" si="8"/>
         <v>00124_pilingrevetment.pdf</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" t="s">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B559" t="s">
         <v>66</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>331</v>
       </c>
-      <c r="C559" t="str">
+      <c r="D559" t="str">
         <f t="shared" si="8"/>
         <v>00127_rockriprap.pdf</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B560" t="s">
         <v>66</v>
       </c>
-      <c r="B560" t="s">
+      <c r="C560" t="s">
         <v>332</v>
       </c>
-      <c r="C560" t="str">
+      <c r="D560" t="str">
         <f t="shared" si="8"/>
         <v>00042_stonerevet.pdf</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" t="s">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B561" t="s">
         <v>66</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
         <v>333</v>
       </c>
-      <c r="C561" t="str">
+      <c r="D561" t="str">
         <f t="shared" si="8"/>
         <v>00136_veg_rockgabions.pdf</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B562" t="s">
         <v>66</v>
       </c>
-      <c r="B562" t="s">
+      <c r="C562" t="s">
         <v>283</v>
       </c>
-      <c r="C562" t="str">
+      <c r="D562" t="str">
         <f t="shared" si="8"/>
         <v>00120_logrootwad.pdf</v>
       </c>
@@ -23162,10 +23203,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
